--- a/data/lit_review/round2/raw/2025_07_30_round2_database.xlsx
+++ b/data/lit_review/round2/raw/2025_07_30_round2_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round2/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672DB5B3-8C55-E742-B09E-88C58481A163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5FFC35-9585-AE45-BA4F-6D67D8742AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4350" uniqueCount="2987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4473" uniqueCount="2991">
   <si>
     <t>paper_id</t>
   </si>
@@ -8987,6 +8987,18 @@
   </si>
   <si>
     <t>Diarrhetic</t>
+  </si>
+  <si>
+    <t>Pseudo-nitzschia seriata</t>
+  </si>
+  <si>
+    <t>Pseudo-nitzschia australis</t>
+  </si>
+  <si>
+    <t>Gymnodinium catenatum</t>
+  </si>
+  <si>
+    <t>Alexandrium fundyense</t>
   </si>
 </sst>
 </file>
@@ -9366,22 +9378,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="J143" sqref="J143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K619" sqref="K619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="111" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="6" max="6" width="48.5" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
@@ -9478,7 +9493,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -9507,7 +9522,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -9530,7 +9545,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -9552,8 +9567,15 @@
       <c r="G4" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J4" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -9582,7 +9604,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -9605,7 +9627,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -9634,7 +9656,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -9663,7 +9685,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -9685,8 +9707,15 @@
       <c r="G9" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J9" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -9713,7 +9742,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
@@ -9735,8 +9764,15 @@
       <c r="G11" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J11" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -9758,8 +9794,11 @@
       <c r="G12" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J12" s="6" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -9788,7 +9827,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>62</v>
       </c>
@@ -9817,7 +9856,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>67</v>
       </c>
@@ -9837,8 +9876,15 @@
       <c r="G15" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J15" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>71</v>
       </c>
@@ -9860,8 +9906,15 @@
       <c r="G16" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J16" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>76</v>
       </c>
@@ -9883,8 +9936,15 @@
       <c r="G17" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J17" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>81</v>
       </c>
@@ -9911,7 +9971,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>85</v>
       </c>
@@ -9940,7 +10000,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>90</v>
       </c>
@@ -10014,7 +10074,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>94</v>
       </c>
@@ -10043,7 +10103,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>100</v>
       </c>
@@ -10066,7 +10126,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>106</v>
       </c>
@@ -10089,7 +10149,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>111</v>
       </c>
@@ -10111,8 +10171,15 @@
       <c r="G24" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J24" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>116</v>
       </c>
@@ -10135,7 +10202,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>121</v>
       </c>
@@ -10157,8 +10224,15 @@
       <c r="G26" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J26" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>126</v>
       </c>
@@ -10180,8 +10254,11 @@
       <c r="G27" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J27" s="6" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>131</v>
       </c>
@@ -10203,8 +10280,15 @@
       <c r="G28" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J28" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>136</v>
       </c>
@@ -10227,7 +10311,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>141</v>
       </c>
@@ -10256,7 +10340,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>146</v>
       </c>
@@ -10279,7 +10363,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>151</v>
       </c>
@@ -10308,7 +10392,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>156</v>
       </c>
@@ -10331,7 +10415,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>161</v>
       </c>
@@ -10358,7 +10442,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>165</v>
       </c>
@@ -10387,7 +10471,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>170</v>
       </c>
@@ -10450,7 +10534,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>170</v>
       </c>
@@ -10513,7 +10597,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>174</v>
       </c>
@@ -10542,7 +10626,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>179</v>
       </c>
@@ -10564,8 +10648,15 @@
       <c r="G39" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J39" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>184</v>
       </c>
@@ -10594,7 +10685,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>189</v>
       </c>
@@ -10617,7 +10708,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>194</v>
       </c>
@@ -10639,8 +10730,15 @@
       <c r="G42" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J42" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>199</v>
       </c>
@@ -10669,7 +10767,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>204</v>
       </c>
@@ -10692,7 +10790,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>209</v>
       </c>
@@ -10724,7 +10822,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>214</v>
       </c>
@@ -10747,7 +10845,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>219</v>
       </c>
@@ -10776,7 +10874,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>224</v>
       </c>
@@ -10798,8 +10896,11 @@
       <c r="G48" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J48" s="6" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>229</v>
       </c>
@@ -10821,8 +10922,15 @@
       <c r="G49" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J49" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>234</v>
       </c>
@@ -10851,7 +10959,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>239</v>
       </c>
@@ -10874,7 +10982,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>244</v>
       </c>
@@ -10903,7 +11011,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>249</v>
       </c>
@@ -10932,7 +11040,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>254</v>
       </c>
@@ -10954,8 +11062,14 @@
       <c r="G54" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J54" s="6" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K54" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>259</v>
       </c>
@@ -10984,7 +11098,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>264</v>
       </c>
@@ -11011,7 +11125,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>268</v>
       </c>
@@ -11040,7 +11154,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>273</v>
       </c>
@@ -11060,8 +11174,15 @@
       <c r="G58" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J58" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>277</v>
       </c>
@@ -11083,8 +11204,15 @@
       <c r="G59" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J59" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>282</v>
       </c>
@@ -11111,7 +11239,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>286</v>
       </c>
@@ -11134,7 +11262,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>291</v>
       </c>
@@ -11163,7 +11291,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>296</v>
       </c>
@@ -11190,7 +11318,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>300</v>
       </c>
@@ -11210,8 +11338,15 @@
       <c r="G64" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J64" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>304</v>
       </c>
@@ -11233,8 +11368,17 @@
       <c r="G65" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J65" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>2946</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>309</v>
       </c>
@@ -11263,7 +11407,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>314</v>
       </c>
@@ -11290,7 +11434,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>318</v>
       </c>
@@ -11308,8 +11452,15 @@
       <c r="G68" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J68" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>322</v>
       </c>
@@ -11329,8 +11480,11 @@
       <c r="G69" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J69" s="6" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>326</v>
       </c>
@@ -11351,7 +11505,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>330</v>
       </c>
@@ -11373,8 +11527,14 @@
       <c r="G71" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J71" s="6" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K71" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>335</v>
       </c>
@@ -11396,8 +11556,15 @@
       <c r="G72" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J72" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>340</v>
       </c>
@@ -11426,7 +11593,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>345</v>
       </c>
@@ -11448,8 +11615,15 @@
       <c r="G74" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J74" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>350</v>
       </c>
@@ -11481,7 +11655,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>355</v>
       </c>
@@ -11503,8 +11677,15 @@
       <c r="G76" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J76" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>360</v>
       </c>
@@ -11524,8 +11705,15 @@
       <c r="G77" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J77" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>364</v>
       </c>
@@ -11554,7 +11742,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>369</v>
       </c>
@@ -11583,7 +11771,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>374</v>
       </c>
@@ -11603,8 +11791,15 @@
       <c r="G80" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J80" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>378</v>
       </c>
@@ -11626,8 +11821,15 @@
       <c r="G81" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J81" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>383</v>
       </c>
@@ -11656,7 +11858,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>388</v>
       </c>
@@ -11676,8 +11878,15 @@
       <c r="G83" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J83" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>392</v>
       </c>
@@ -11700,7 +11909,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>397</v>
       </c>
@@ -11723,7 +11932,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>402</v>
       </c>
@@ -11743,8 +11952,17 @@
       <c r="G86" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J86" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>2946</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>406</v>
       </c>
@@ -11764,8 +11982,15 @@
       <c r="G87" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J87" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>410</v>
       </c>
@@ -11788,7 +12013,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>415</v>
       </c>
@@ -11817,7 +12042,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>420</v>
       </c>
@@ -11846,7 +12071,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>425</v>
       </c>
@@ -11873,7 +12098,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>429</v>
       </c>
@@ -11908,7 +12133,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>434</v>
       </c>
@@ -11935,7 +12160,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>438</v>
       </c>
@@ -11958,7 +12183,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>443</v>
       </c>
@@ -11987,7 +12212,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>448</v>
       </c>
@@ -12005,8 +12230,15 @@
       <c r="G96" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J96" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>451</v>
       </c>
@@ -12035,7 +12267,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>456</v>
       </c>
@@ -12058,7 +12290,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>461</v>
       </c>
@@ -12078,6 +12310,13 @@
       <c r="G99" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J99" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3" t="s">
+        <v>2947</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
@@ -12106,7 +12345,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>470</v>
       </c>
@@ -12126,8 +12365,11 @@
       <c r="G101" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J101" s="6" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>474</v>
       </c>
@@ -12154,7 +12396,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>478</v>
       </c>
@@ -12176,8 +12418,14 @@
       <c r="G103" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J103" s="6" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K103" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>483</v>
       </c>
@@ -12200,7 +12448,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>488</v>
       </c>
@@ -12223,7 +12471,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>493</v>
       </c>
@@ -12252,7 +12500,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>498</v>
       </c>
@@ -12274,8 +12522,15 @@
       <c r="G107" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J107" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>503</v>
       </c>
@@ -12304,7 +12559,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>508</v>
       </c>
@@ -12331,7 +12586,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>512</v>
       </c>
@@ -12353,8 +12608,15 @@
       <c r="G110" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J110" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>517</v>
       </c>
@@ -12376,8 +12638,11 @@
       <c r="G111" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J111" s="6" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>522</v>
       </c>
@@ -12398,7 +12663,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>526</v>
       </c>
@@ -12421,7 +12686,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>531</v>
       </c>
@@ -12450,7 +12715,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>536</v>
       </c>
@@ -12477,7 +12742,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>540</v>
       </c>
@@ -12506,7 +12771,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>545</v>
       </c>
@@ -12529,7 +12794,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>550</v>
       </c>
@@ -12552,7 +12817,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>555</v>
       </c>
@@ -12575,7 +12840,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>560</v>
       </c>
@@ -12598,7 +12863,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>565</v>
       </c>
@@ -12620,8 +12885,17 @@
       <c r="G121" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J121" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>2946</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>570</v>
       </c>
@@ -12644,7 +12918,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>575</v>
       </c>
@@ -12667,11 +12941,14 @@
       <c r="J123" t="s">
         <v>2973</v>
       </c>
+      <c r="K123" t="s">
+        <v>2988</v>
+      </c>
       <c r="L123" t="s">
         <v>2972</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>579</v>
       </c>
@@ -12700,7 +12977,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>584</v>
       </c>
@@ -12723,7 +13000,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>589</v>
       </c>
@@ -12744,7 +13021,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>593</v>
       </c>
@@ -12766,8 +13043,15 @@
       <c r="G127" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J127" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>598</v>
       </c>
@@ -12788,7 +13072,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>602</v>
       </c>
@@ -12811,7 +13095,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>607</v>
       </c>
@@ -12840,7 +13124,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>612</v>
       </c>
@@ -12863,7 +13147,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>617</v>
       </c>
@@ -12890,7 +13174,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>621</v>
       </c>
@@ -12922,7 +13206,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>626</v>
       </c>
@@ -12945,7 +13229,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>631</v>
       </c>
@@ -12968,7 +13252,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>636</v>
       </c>
@@ -12991,7 +13275,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>641</v>
       </c>
@@ -13012,7 +13296,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>645</v>
       </c>
@@ -13034,8 +13318,15 @@
       <c r="G138" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J138" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>650</v>
       </c>
@@ -13056,7 +13347,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>654</v>
       </c>
@@ -13085,7 +13376,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>659</v>
       </c>
@@ -13108,7 +13399,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>664</v>
       </c>
@@ -13135,7 +13426,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>668</v>
       </c>
@@ -13158,7 +13449,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>673</v>
       </c>
@@ -13181,7 +13472,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>678</v>
       </c>
@@ -13203,8 +13494,15 @@
       <c r="G145" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J145" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>683</v>
       </c>
@@ -13227,7 +13525,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>688</v>
       </c>
@@ -13250,7 +13548,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>693</v>
       </c>
@@ -13277,7 +13575,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>697</v>
       </c>
@@ -13298,7 +13596,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>701</v>
       </c>
@@ -13319,7 +13617,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>705</v>
       </c>
@@ -13340,7 +13638,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>709</v>
       </c>
@@ -13361,7 +13659,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>713</v>
       </c>
@@ -13388,7 +13686,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>717</v>
       </c>
@@ -13411,7 +13709,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>722</v>
       </c>
@@ -13433,8 +13731,15 @@
       <c r="G155" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J155" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>727</v>
       </c>
@@ -13457,7 +13762,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>732</v>
       </c>
@@ -13484,7 +13789,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>736</v>
       </c>
@@ -13516,7 +13821,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>741</v>
       </c>
@@ -13537,7 +13842,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>745</v>
       </c>
@@ -13560,7 +13865,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>750</v>
       </c>
@@ -13592,7 +13897,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>755</v>
       </c>
@@ -13613,7 +13918,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>759</v>
       </c>
@@ -13634,7 +13939,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>763</v>
       </c>
@@ -13657,7 +13962,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>768</v>
       </c>
@@ -13680,7 +13985,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>773</v>
       </c>
@@ -13703,7 +14008,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>778</v>
       </c>
@@ -13726,7 +14031,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>783</v>
       </c>
@@ -13749,7 +14054,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>788</v>
       </c>
@@ -13772,7 +14077,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>793</v>
       </c>
@@ -13799,7 +14104,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>797</v>
       </c>
@@ -13819,8 +14124,11 @@
       <c r="G171" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J171" s="6" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>801</v>
       </c>
@@ -13842,8 +14150,17 @@
       <c r="G172" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J172" t="s">
+        <v>2973</v>
+      </c>
+      <c r="K172" t="s">
+        <v>2987</v>
+      </c>
+      <c r="L172" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>806</v>
       </c>
@@ -13866,7 +14183,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>811</v>
       </c>
@@ -13889,7 +14206,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>816</v>
       </c>
@@ -13912,7 +14229,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>821</v>
       </c>
@@ -13935,7 +14252,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>824</v>
       </c>
@@ -13958,7 +14275,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>829</v>
       </c>
@@ -13981,7 +14298,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>834</v>
       </c>
@@ -14004,7 +14321,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>839</v>
       </c>
@@ -14027,7 +14344,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>844</v>
       </c>
@@ -14050,7 +14367,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>849</v>
       </c>
@@ -14072,8 +14389,17 @@
       <c r="G182" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J182" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>2946</v>
+      </c>
+      <c r="L182" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>854</v>
       </c>
@@ -14095,8 +14421,15 @@
       <c r="G183" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J183" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K183" s="3"/>
+      <c r="L183" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>859</v>
       </c>
@@ -14117,7 +14450,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>863</v>
       </c>
@@ -14140,7 +14473,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>868</v>
       </c>
@@ -14163,7 +14496,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>873</v>
       </c>
@@ -14186,7 +14519,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>878</v>
       </c>
@@ -14209,7 +14542,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>883</v>
       </c>
@@ -14232,7 +14565,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>888</v>
       </c>
@@ -14254,8 +14587,14 @@
       <c r="G190" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J190" t="s">
+        <v>2973</v>
+      </c>
+      <c r="L190" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>893</v>
       </c>
@@ -14278,7 +14617,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>898</v>
       </c>
@@ -14301,7 +14640,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>903</v>
       </c>
@@ -14323,8 +14662,14 @@
       <c r="G193" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J193" t="s">
+        <v>2973</v>
+      </c>
+      <c r="L193" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>908</v>
       </c>
@@ -14347,7 +14692,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>913</v>
       </c>
@@ -14368,7 +14713,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>917</v>
       </c>
@@ -14388,8 +14733,15 @@
       <c r="G196" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J196" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K196" s="3"/>
+      <c r="L196" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>921</v>
       </c>
@@ -14412,7 +14764,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>926</v>
       </c>
@@ -14435,7 +14787,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>931</v>
       </c>
@@ -14457,8 +14809,17 @@
       <c r="G199" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J199" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>2946</v>
+      </c>
+      <c r="L199" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>936</v>
       </c>
@@ -14481,7 +14842,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>941</v>
       </c>
@@ -14504,7 +14865,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>946</v>
       </c>
@@ -14524,8 +14885,14 @@
       <c r="G202" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J202" s="6" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K202" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>950</v>
       </c>
@@ -14548,7 +14915,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>955</v>
       </c>
@@ -14570,8 +14937,17 @@
       <c r="G204" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J204" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>2946</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>960</v>
       </c>
@@ -14590,7 +14966,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>964</v>
       </c>
@@ -14613,7 +14989,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>969</v>
       </c>
@@ -14634,7 +15010,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>973</v>
       </c>
@@ -14657,7 +15033,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>978</v>
       </c>
@@ -14680,7 +15056,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>983</v>
       </c>
@@ -14703,7 +15079,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>988</v>
       </c>
@@ -14726,7 +15102,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>993</v>
       </c>
@@ -14748,8 +15124,11 @@
       <c r="G212" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J212" s="6" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>998</v>
       </c>
@@ -14772,7 +15151,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>1003</v>
       </c>
@@ -14794,8 +15173,15 @@
       <c r="G214" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J214" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K214" s="3"/>
+      <c r="L214" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>1008</v>
       </c>
@@ -14816,7 +15202,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>1012</v>
       </c>
@@ -14839,7 +15225,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>1017</v>
       </c>
@@ -14860,7 +15246,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>1021</v>
       </c>
@@ -14883,7 +15269,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>1026</v>
       </c>
@@ -14904,7 +15290,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>1030</v>
       </c>
@@ -14923,7 +15309,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>1033</v>
       </c>
@@ -14946,7 +15332,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>1038</v>
       </c>
@@ -14969,7 +15355,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>1043</v>
       </c>
@@ -14990,7 +15376,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>1047</v>
       </c>
@@ -15013,7 +15399,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>1052</v>
       </c>
@@ -15036,7 +15422,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>1057</v>
       </c>
@@ -15057,7 +15443,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>1061</v>
       </c>
@@ -15078,7 +15464,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>1065</v>
       </c>
@@ -15099,7 +15485,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>1069</v>
       </c>
@@ -15122,7 +15508,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>1074</v>
       </c>
@@ -15145,7 +15531,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>1079</v>
       </c>
@@ -15166,7 +15552,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>1083</v>
       </c>
@@ -15189,7 +15575,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>1088</v>
       </c>
@@ -15211,8 +15597,17 @@
       <c r="G233" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J233" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>2946</v>
+      </c>
+      <c r="L233" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>1093</v>
       </c>
@@ -15235,7 +15630,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>1098</v>
       </c>
@@ -15258,7 +15653,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>1103</v>
       </c>
@@ -15281,7 +15676,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>1108</v>
       </c>
@@ -15304,7 +15699,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>1111</v>
       </c>
@@ -15325,7 +15720,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>1115</v>
       </c>
@@ -15348,7 +15743,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>1120</v>
       </c>
@@ -15369,7 +15764,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>1124</v>
       </c>
@@ -15392,7 +15787,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>1129</v>
       </c>
@@ -15415,7 +15810,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>1134</v>
       </c>
@@ -15438,7 +15833,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>1139</v>
       </c>
@@ -15461,7 +15856,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>1144</v>
       </c>
@@ -15482,7 +15877,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>1148</v>
       </c>
@@ -15505,7 +15900,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>1153</v>
       </c>
@@ -15528,7 +15923,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>1158</v>
       </c>
@@ -15549,7 +15944,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>1162</v>
       </c>
@@ -15571,8 +15966,17 @@
       <c r="G249" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J249" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>2946</v>
+      </c>
+      <c r="L249" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>1167</v>
       </c>
@@ -15595,7 +15999,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>1172</v>
       </c>
@@ -15616,7 +16020,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>1176</v>
       </c>
@@ -15639,7 +16043,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>1181</v>
       </c>
@@ -15662,7 +16066,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>1186</v>
       </c>
@@ -15685,7 +16089,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>1191</v>
       </c>
@@ -15708,7 +16112,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>1196</v>
       </c>
@@ -15729,7 +16133,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>1200</v>
       </c>
@@ -15752,7 +16156,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>1205</v>
       </c>
@@ -15775,7 +16179,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>1210</v>
       </c>
@@ -15798,7 +16202,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>1215</v>
       </c>
@@ -15821,7 +16225,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>1220</v>
       </c>
@@ -15844,7 +16248,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>1225</v>
       </c>
@@ -15867,7 +16271,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>1230</v>
       </c>
@@ -15888,7 +16292,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>1234</v>
       </c>
@@ -15909,7 +16313,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>1238</v>
       </c>
@@ -15930,7 +16334,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>1242</v>
       </c>
@@ -15951,7 +16355,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>1246</v>
       </c>
@@ -15974,7 +16378,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>1251</v>
       </c>
@@ -15997,7 +16401,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>1256</v>
       </c>
@@ -16020,7 +16424,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>1261</v>
       </c>
@@ -16043,7 +16447,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>1266</v>
       </c>
@@ -16066,7 +16470,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>1271</v>
       </c>
@@ -16089,7 +16493,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>1276</v>
       </c>
@@ -16112,7 +16516,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>1281</v>
       </c>
@@ -16135,7 +16539,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>1286</v>
       </c>
@@ -16158,7 +16562,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>1291</v>
       </c>
@@ -16181,7 +16585,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>1296</v>
       </c>
@@ -16204,7 +16608,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>1301</v>
       </c>
@@ -16227,7 +16631,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>1306</v>
       </c>
@@ -16248,7 +16652,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>1310</v>
       </c>
@@ -16271,7 +16675,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>1315</v>
       </c>
@@ -16292,7 +16696,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>1319</v>
       </c>
@@ -16311,7 +16715,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>1322</v>
       </c>
@@ -16332,7 +16736,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>1326</v>
       </c>
@@ -16353,7 +16757,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>1330</v>
       </c>
@@ -16376,7 +16780,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>1335</v>
       </c>
@@ -16399,7 +16803,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>1340</v>
       </c>
@@ -16422,7 +16826,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>1345</v>
       </c>
@@ -16445,7 +16849,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>1350</v>
       </c>
@@ -16466,7 +16870,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>1354</v>
       </c>
@@ -16489,7 +16893,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>1359</v>
       </c>
@@ -16512,7 +16916,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>1364</v>
       </c>
@@ -16535,7 +16939,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>1369</v>
       </c>
@@ -16558,7 +16962,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>1374</v>
       </c>
@@ -16579,7 +16983,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>1378</v>
       </c>
@@ -16602,7 +17006,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>1383</v>
       </c>
@@ -16625,7 +17029,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>1388</v>
       </c>
@@ -16648,7 +17052,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>1393</v>
       </c>
@@ -16671,7 +17075,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>1398</v>
       </c>
@@ -16694,7 +17098,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>1403</v>
       </c>
@@ -16715,7 +17119,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>1407</v>
       </c>
@@ -16738,7 +17142,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>1412</v>
       </c>
@@ -16761,7 +17165,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>1417</v>
       </c>
@@ -16784,7 +17188,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>1422</v>
       </c>
@@ -16807,7 +17211,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>1427</v>
       </c>
@@ -16828,7 +17232,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>1431</v>
       </c>
@@ -16851,7 +17255,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>1436</v>
       </c>
@@ -16874,7 +17278,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>1441</v>
       </c>
@@ -16897,7 +17301,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>1446</v>
       </c>
@@ -16920,7 +17324,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>1451</v>
       </c>
@@ -16943,7 +17347,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>1456</v>
       </c>
@@ -16966,7 +17370,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>1461</v>
       </c>
@@ -16989,7 +17393,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>1466</v>
       </c>
@@ -17012,7 +17416,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>1471</v>
       </c>
@@ -17033,7 +17437,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>1475</v>
       </c>
@@ -17056,7 +17460,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>1480</v>
       </c>
@@ -17079,7 +17483,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>1485</v>
       </c>
@@ -17102,7 +17506,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>1490</v>
       </c>
@@ -17125,7 +17529,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>1495</v>
       </c>
@@ -17148,7 +17552,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>1500</v>
       </c>
@@ -17171,7 +17575,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>1505</v>
       </c>
@@ -17194,7 +17598,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>1510</v>
       </c>
@@ -17217,7 +17621,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>1515</v>
       </c>
@@ -17240,7 +17644,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>1520</v>
       </c>
@@ -17263,7 +17667,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>1525</v>
       </c>
@@ -17286,7 +17690,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>1530</v>
       </c>
@@ -17309,7 +17713,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>1535</v>
       </c>
@@ -17332,7 +17736,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>1540</v>
       </c>
@@ -17353,7 +17757,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>1544</v>
       </c>
@@ -17376,7 +17780,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>1549</v>
       </c>
@@ -17399,7 +17803,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>1554</v>
       </c>
@@ -17422,7 +17826,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>1559</v>
       </c>
@@ -17445,7 +17849,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>1564</v>
       </c>
@@ -17468,7 +17872,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>1569</v>
       </c>
@@ -17491,7 +17895,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>1574</v>
       </c>
@@ -17514,7 +17918,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>1579</v>
       </c>
@@ -17537,7 +17941,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>1584</v>
       </c>
@@ -17560,7 +17964,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>1589</v>
       </c>
@@ -17583,7 +17987,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>1594</v>
       </c>
@@ -17602,7 +18006,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>1597</v>
       </c>
@@ -17625,7 +18029,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>1602</v>
       </c>
@@ -17648,7 +18052,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>1607</v>
       </c>
@@ -17671,7 +18075,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>1613</v>
       </c>
@@ -17694,7 +18098,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>1618</v>
       </c>
@@ -17717,7 +18121,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>1623</v>
       </c>
@@ -17738,7 +18142,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>1627</v>
       </c>
@@ -17755,7 +18159,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>1629</v>
       </c>
@@ -17778,7 +18182,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>1634</v>
       </c>
@@ -17801,7 +18205,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>1639</v>
       </c>
@@ -17824,7 +18228,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>1644</v>
       </c>
@@ -17847,7 +18251,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>1649</v>
       </c>
@@ -17870,7 +18274,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>1654</v>
       </c>
@@ -17891,7 +18295,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>1658</v>
       </c>
@@ -17914,7 +18318,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>1663</v>
       </c>
@@ -17937,7 +18341,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>1668</v>
       </c>
@@ -17960,7 +18364,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>1673</v>
       </c>
@@ -17983,7 +18387,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>1678</v>
       </c>
@@ -18006,7 +18410,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>1683</v>
       </c>
@@ -18027,7 +18431,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>1687</v>
       </c>
@@ -18050,7 +18454,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>1692</v>
       </c>
@@ -18073,7 +18477,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>1697</v>
       </c>
@@ -18096,7 +18500,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>1702</v>
       </c>
@@ -18119,7 +18523,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>1707</v>
       </c>
@@ -18142,7 +18546,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>1712</v>
       </c>
@@ -18165,7 +18569,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>1717</v>
       </c>
@@ -18188,7 +18592,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>1722</v>
       </c>
@@ -18209,7 +18613,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>1726</v>
       </c>
@@ -18232,7 +18636,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>1731</v>
       </c>
@@ -18255,7 +18659,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>1736</v>
       </c>
@@ -18278,7 +18682,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>1741</v>
       </c>
@@ -18301,7 +18705,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>1746</v>
       </c>
@@ -18324,7 +18728,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>1751</v>
       </c>
@@ -18347,7 +18751,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>1756</v>
       </c>
@@ -18368,7 +18772,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>1760</v>
       </c>
@@ -18391,7 +18795,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>1765</v>
       </c>
@@ -18414,7 +18818,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>1770</v>
       </c>
@@ -18437,7 +18841,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>1775</v>
       </c>
@@ -18458,7 +18862,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>1779</v>
       </c>
@@ -18481,7 +18885,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>1784</v>
       </c>
@@ -18504,7 +18908,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>1789</v>
       </c>
@@ -18524,8 +18928,17 @@
       <c r="G380" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J380" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K380" s="3" t="s">
+        <v>2946</v>
+      </c>
+      <c r="L380" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>1793</v>
       </c>
@@ -18548,7 +18961,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>1798</v>
       </c>
@@ -18571,7 +18984,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>1803</v>
       </c>
@@ -18594,7 +19007,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>1808</v>
       </c>
@@ -18617,7 +19030,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>1813</v>
       </c>
@@ -18640,7 +19053,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>1818</v>
       </c>
@@ -18659,7 +19072,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>1821</v>
       </c>
@@ -18682,7 +19095,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>1826</v>
       </c>
@@ -18703,7 +19116,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>1830</v>
       </c>
@@ -18726,7 +19139,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>1835</v>
       </c>
@@ -18749,7 +19162,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>1840</v>
       </c>
@@ -18772,7 +19185,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
         <v>1845</v>
       </c>
@@ -18795,7 +19208,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>1850</v>
       </c>
@@ -18818,7 +19231,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
         <v>1855</v>
       </c>
@@ -18839,7 +19252,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>1859</v>
       </c>
@@ -18862,7 +19275,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
         <v>1864</v>
       </c>
@@ -18885,7 +19298,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>1869</v>
       </c>
@@ -18906,7 +19319,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
         <v>1873</v>
       </c>
@@ -18929,7 +19342,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
         <v>1878</v>
       </c>
@@ -18950,7 +19363,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
         <v>1882</v>
       </c>
@@ -18971,7 +19384,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
         <v>1886</v>
       </c>
@@ -18992,7 +19405,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
         <v>1890</v>
       </c>
@@ -19015,7 +19428,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
         <v>1895</v>
       </c>
@@ -19038,7 +19451,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
         <v>1900</v>
       </c>
@@ -19059,7 +19472,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
         <v>1904</v>
       </c>
@@ -19082,7 +19495,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
         <v>1909</v>
       </c>
@@ -19105,7 +19518,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
         <v>1914</v>
       </c>
@@ -19126,7 +19539,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
         <v>1918</v>
       </c>
@@ -19145,7 +19558,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
         <v>1921</v>
       </c>
@@ -19166,7 +19579,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
         <v>1925</v>
       </c>
@@ -19189,7 +19602,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
         <v>1930</v>
       </c>
@@ -19210,7 +19623,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
         <v>1934</v>
       </c>
@@ -19233,7 +19646,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
         <v>1939</v>
       </c>
@@ -19252,7 +19665,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
         <v>1942</v>
       </c>
@@ -19275,7 +19688,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
         <v>1947</v>
       </c>
@@ -19298,7 +19711,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
         <v>1952</v>
       </c>
@@ -19321,7 +19734,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
         <v>1957</v>
       </c>
@@ -19344,7 +19757,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
         <v>1962</v>
       </c>
@@ -19367,7 +19780,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
         <v>1967</v>
       </c>
@@ -19390,7 +19803,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
         <v>1972</v>
       </c>
@@ -19413,7 +19826,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
         <v>1977</v>
       </c>
@@ -19436,7 +19849,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
         <v>1982</v>
       </c>
@@ -19459,7 +19872,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
         <v>1987</v>
       </c>
@@ -19480,7 +19893,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
         <v>1991</v>
       </c>
@@ -19503,7 +19916,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
         <v>1996</v>
       </c>
@@ -19526,7 +19939,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
         <v>2001</v>
       </c>
@@ -19549,7 +19962,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
         <v>2006</v>
       </c>
@@ -19572,7 +19985,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
         <v>2011</v>
       </c>
@@ -19595,7 +20008,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
         <v>2016</v>
       </c>
@@ -19618,7 +20031,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
         <v>2021</v>
       </c>
@@ -19639,7 +20052,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
         <v>2025</v>
       </c>
@@ -19662,7 +20075,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
         <v>2030</v>
       </c>
@@ -19685,7 +20098,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
         <v>2035</v>
       </c>
@@ -19704,7 +20117,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
         <v>2038</v>
       </c>
@@ -19727,7 +20140,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
         <v>2043</v>
       </c>
@@ -19750,7 +20163,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
         <v>2048</v>
       </c>
@@ -19773,7 +20186,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
         <v>2053</v>
       </c>
@@ -19792,7 +20205,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
         <v>2056</v>
       </c>
@@ -19815,7 +20228,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
         <v>2061</v>
       </c>
@@ -19838,7 +20251,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
         <v>2066</v>
       </c>
@@ -19861,7 +20274,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
         <v>2071</v>
       </c>
@@ -19881,8 +20294,15 @@
       <c r="G441" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J441" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K441" s="3"/>
+      <c r="L441" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
         <v>2075</v>
       </c>
@@ -19905,7 +20325,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
         <v>2080</v>
       </c>
@@ -19928,7 +20348,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
         <v>2085</v>
       </c>
@@ -19951,7 +20371,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
         <v>2090</v>
       </c>
@@ -19974,7 +20394,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
         <v>2095</v>
       </c>
@@ -19995,7 +20415,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
         <v>2099</v>
       </c>
@@ -20018,7 +20438,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
         <v>2104</v>
       </c>
@@ -20041,7 +20461,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
         <v>2109</v>
       </c>
@@ -20064,7 +20484,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
         <v>2114</v>
       </c>
@@ -20087,7 +20507,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
         <v>2119</v>
       </c>
@@ -20110,7 +20530,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
         <v>2124</v>
       </c>
@@ -20129,7 +20549,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
         <v>2128</v>
       </c>
@@ -20152,7 +20572,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
         <v>2133</v>
       </c>
@@ -20175,7 +20595,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
         <v>2138</v>
       </c>
@@ -20198,7 +20618,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
         <v>2143</v>
       </c>
@@ -20221,7 +20641,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
         <v>2148</v>
       </c>
@@ -20244,7 +20664,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
         <v>2153</v>
       </c>
@@ -20267,7 +20687,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
         <v>2158</v>
       </c>
@@ -20290,7 +20710,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
         <v>2163</v>
       </c>
@@ -20313,7 +20733,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
         <v>2168</v>
       </c>
@@ -20336,7 +20756,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
         <v>2173</v>
       </c>
@@ -20359,7 +20779,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
         <v>2178</v>
       </c>
@@ -20380,7 +20800,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
         <v>2182</v>
       </c>
@@ -20401,7 +20821,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
         <v>2187</v>
       </c>
@@ -20424,7 +20844,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
         <v>2192</v>
       </c>
@@ -20447,7 +20867,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
         <v>2197</v>
       </c>
@@ -20470,7 +20890,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
         <v>2202</v>
       </c>
@@ -20493,7 +20913,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
         <v>2207</v>
       </c>
@@ -20510,7 +20930,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
         <v>2209</v>
       </c>
@@ -20533,7 +20953,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
         <v>2214</v>
       </c>
@@ -20552,7 +20972,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
         <v>2217</v>
       </c>
@@ -20573,7 +20993,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
         <v>2221</v>
       </c>
@@ -20596,7 +21016,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
         <v>2226</v>
       </c>
@@ -20619,7 +21039,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
         <v>2231</v>
       </c>
@@ -20642,7 +21062,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
         <v>2236</v>
       </c>
@@ -20663,7 +21083,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
         <v>2240</v>
       </c>
@@ -20686,7 +21106,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
         <v>2245</v>
       </c>
@@ -20709,7 +21129,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
         <v>2250</v>
       </c>
@@ -20732,7 +21152,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
         <v>2255</v>
       </c>
@@ -20753,7 +21173,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
         <v>2259</v>
       </c>
@@ -20776,7 +21196,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
         <v>2264</v>
       </c>
@@ -20799,7 +21219,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
         <v>2269</v>
       </c>
@@ -20822,7 +21242,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
         <v>2274</v>
       </c>
@@ -20845,7 +21265,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
         <v>2279</v>
       </c>
@@ -20868,7 +21288,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
         <v>2284</v>
       </c>
@@ -20891,7 +21311,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
         <v>2289</v>
       </c>
@@ -20914,7 +21334,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
         <v>2294</v>
       </c>
@@ -20937,7 +21357,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
         <v>2299</v>
       </c>
@@ -20960,7 +21380,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
         <v>2304</v>
       </c>
@@ -20983,7 +21403,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
         <v>2309</v>
       </c>
@@ -21006,7 +21426,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
         <v>2314</v>
       </c>
@@ -21027,7 +21447,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
         <v>2318</v>
       </c>
@@ -21050,7 +21470,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
         <v>2323</v>
       </c>
@@ -21073,7 +21493,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
         <v>2328</v>
       </c>
@@ -21096,7 +21516,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
         <v>2333</v>
       </c>
@@ -21117,7 +21537,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
         <v>2337</v>
       </c>
@@ -21140,7 +21560,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
         <v>2342</v>
       </c>
@@ -21163,7 +21583,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
         <v>2347</v>
       </c>
@@ -21186,7 +21606,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
         <v>2352</v>
       </c>
@@ -21209,7 +21629,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
         <v>2357</v>
       </c>
@@ -21232,7 +21652,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="3" t="s">
         <v>2362</v>
       </c>
@@ -21255,7 +21675,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
         <v>2367</v>
       </c>
@@ -21276,7 +21696,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="3" t="s">
         <v>2371</v>
       </c>
@@ -21297,7 +21717,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
         <v>2375</v>
       </c>
@@ -21320,7 +21740,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="s">
         <v>2380</v>
       </c>
@@ -21343,7 +21763,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="s">
         <v>2385</v>
       </c>
@@ -21366,7 +21786,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="s">
         <v>2390</v>
       </c>
@@ -21389,7 +21809,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
         <v>2395</v>
       </c>
@@ -21412,7 +21832,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="3" t="s">
         <v>2400</v>
       </c>
@@ -21435,7 +21855,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="s">
         <v>2405</v>
       </c>
@@ -21458,7 +21878,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="3" t="s">
         <v>2410</v>
       </c>
@@ -21479,7 +21899,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
         <v>2414</v>
       </c>
@@ -21502,7 +21922,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
         <v>2419</v>
       </c>
@@ -21525,7 +21945,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
         <v>2424</v>
       </c>
@@ -21548,7 +21968,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="s">
         <v>2429</v>
       </c>
@@ -21571,7 +21991,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
         <v>2434</v>
       </c>
@@ -21594,7 +22014,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="3" t="s">
         <v>2439</v>
       </c>
@@ -21617,7 +22037,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
         <v>2444</v>
       </c>
@@ -21640,7 +22060,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="3" t="s">
         <v>2449</v>
       </c>
@@ -21663,7 +22083,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
         <v>2454</v>
       </c>
@@ -21686,7 +22106,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="s">
         <v>2459</v>
       </c>
@@ -21707,7 +22127,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="s">
         <v>2463</v>
       </c>
@@ -21730,7 +22150,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="3" t="s">
         <v>2468</v>
       </c>
@@ -21751,7 +22171,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="s">
         <v>2472</v>
       </c>
@@ -21774,7 +22194,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="3" t="s">
         <v>2477</v>
       </c>
@@ -21797,7 +22217,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="s">
         <v>2482</v>
       </c>
@@ -21820,7 +22240,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="s">
         <v>2487</v>
       </c>
@@ -21843,7 +22263,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
         <v>2492</v>
       </c>
@@ -21864,7 +22284,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="3" t="s">
         <v>2496</v>
       </c>
@@ -21887,7 +22307,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
         <v>2501</v>
       </c>
@@ -21910,7 +22330,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="s">
         <v>2506</v>
       </c>
@@ -21933,7 +22353,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
         <v>2511</v>
       </c>
@@ -21956,7 +22376,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="3" t="s">
         <v>2516</v>
       </c>
@@ -21977,7 +22397,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
         <v>2520</v>
       </c>
@@ -22000,7 +22420,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="s">
         <v>2525</v>
       </c>
@@ -22023,7 +22443,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
         <v>2530</v>
       </c>
@@ -22046,7 +22466,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
         <v>2535</v>
       </c>
@@ -22069,7 +22489,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
         <v>2540</v>
       </c>
@@ -22092,7 +22512,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="3" t="s">
         <v>2545</v>
       </c>
@@ -22113,7 +22533,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
         <v>2549</v>
       </c>
@@ -22136,7 +22556,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="3" t="s">
         <v>2554</v>
       </c>
@@ -22157,7 +22577,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
         <v>2558</v>
       </c>
@@ -22178,7 +22598,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
         <v>2562</v>
       </c>
@@ -22201,7 +22621,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
         <v>2567</v>
       </c>
@@ -22224,7 +22644,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="3" t="s">
         <v>2572</v>
       </c>
@@ -22247,7 +22667,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
         <v>2577</v>
       </c>
@@ -22270,7 +22690,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
         <v>2582</v>
       </c>
@@ -22293,7 +22713,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
         <v>2587</v>
       </c>
@@ -22316,7 +22736,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="3" t="s">
         <v>2592</v>
       </c>
@@ -22339,7 +22759,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
         <v>2597</v>
       </c>
@@ -22362,7 +22782,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="3" t="s">
         <v>2602</v>
       </c>
@@ -22385,7 +22805,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
         <v>2607</v>
       </c>
@@ -22408,7 +22828,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
         <v>2612</v>
       </c>
@@ -22431,7 +22851,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
         <v>2617</v>
       </c>
@@ -22454,7 +22874,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="3" t="s">
         <v>2622</v>
       </c>
@@ -22477,7 +22897,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
         <v>2627</v>
       </c>
@@ -22500,7 +22920,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="3" t="s">
         <v>2632</v>
       </c>
@@ -22523,7 +22943,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
         <v>2637</v>
       </c>
@@ -22546,7 +22966,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="3" t="s">
         <v>2642</v>
       </c>
@@ -22567,7 +22987,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
         <v>2646</v>
       </c>
@@ -22590,7 +23010,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="3" t="s">
         <v>2651</v>
       </c>
@@ -22609,7 +23029,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
         <v>2654</v>
       </c>
@@ -22632,7 +23052,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="3" t="s">
         <v>2659</v>
       </c>
@@ -22655,7 +23075,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
         <v>2664</v>
       </c>
@@ -22678,7 +23098,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="s">
         <v>2669</v>
       </c>
@@ -22701,7 +23121,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="3" t="s">
         <v>2674</v>
       </c>
@@ -22722,7 +23142,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="3" t="s">
         <v>2678</v>
       </c>
@@ -22745,7 +23165,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="3" t="s">
         <v>2683</v>
       </c>
@@ -22768,7 +23188,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="3" t="s">
         <v>2688</v>
       </c>
@@ -22789,7 +23209,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="3" t="s">
         <v>2692</v>
       </c>
@@ -22812,7 +23232,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="3" t="s">
         <v>2697</v>
       </c>
@@ -22835,7 +23255,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
         <v>2702</v>
       </c>
@@ -22858,7 +23278,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="3" t="s">
         <v>2707</v>
       </c>
@@ -22881,7 +23301,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
         <v>2712</v>
       </c>
@@ -22902,7 +23322,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="3" t="s">
         <v>2716</v>
       </c>
@@ -22925,7 +23345,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
         <v>2721</v>
       </c>
@@ -22948,7 +23368,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="3" t="s">
         <v>2726</v>
       </c>
@@ -22971,7 +23391,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
         <v>2731</v>
       </c>
@@ -22992,7 +23412,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="3" t="s">
         <v>2735</v>
       </c>
@@ -23015,7 +23435,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
         <v>2740</v>
       </c>
@@ -23038,7 +23458,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
         <v>2745</v>
       </c>
@@ -23059,7 +23479,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
         <v>2749</v>
       </c>
@@ -23082,7 +23502,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="3" t="s">
         <v>2754</v>
       </c>
@@ -23105,7 +23525,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
         <v>2759</v>
       </c>
@@ -23128,7 +23548,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" s="3" t="s">
         <v>2764</v>
       </c>
@@ -23149,7 +23569,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
         <v>2768</v>
       </c>
@@ -23172,7 +23592,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="3" t="s">
         <v>2773</v>
       </c>
@@ -23195,7 +23615,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
         <v>2778</v>
       </c>
@@ -23218,7 +23638,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="3" t="s">
         <v>2783</v>
       </c>
@@ -23239,7 +23659,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
         <v>2787</v>
       </c>
@@ -23262,7 +23682,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="3" t="s">
         <v>2792</v>
       </c>
@@ -23283,7 +23703,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
         <v>2796</v>
       </c>
@@ -23304,7 +23724,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="3" t="s">
         <v>2800</v>
       </c>
@@ -23325,7 +23745,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
         <v>2804</v>
       </c>
@@ -23348,7 +23768,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="3" t="s">
         <v>2810</v>
       </c>
@@ -23371,7 +23791,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="3" t="s">
         <v>2815</v>
       </c>
@@ -23394,7 +23814,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="3" t="s">
         <v>2820</v>
       </c>
@@ -23417,7 +23837,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
         <v>2825</v>
       </c>
@@ -23440,7 +23860,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="3" t="s">
         <v>2830</v>
       </c>
@@ -23461,7 +23881,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
         <v>2834</v>
       </c>
@@ -23484,7 +23904,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="3" t="s">
         <v>2839</v>
       </c>
@@ -23505,7 +23925,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
         <v>2843</v>
       </c>
@@ -23528,7 +23948,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="3" t="s">
         <v>2848</v>
       </c>
@@ -23549,7 +23969,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
         <v>2852</v>
       </c>
@@ -23570,7 +23990,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="3" t="s">
         <v>2856</v>
       </c>
@@ -23591,7 +24011,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
         <v>2860</v>
       </c>
@@ -23614,7 +24034,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="3" t="s">
         <v>2865</v>
       </c>
@@ -23637,7 +24057,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
         <v>2870</v>
       </c>
@@ -23660,7 +24080,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="3" t="s">
         <v>2875</v>
       </c>
@@ -23683,7 +24103,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
         <v>2880</v>
       </c>
@@ -23706,7 +24126,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="3" t="s">
         <v>2885</v>
       </c>
@@ -23729,7 +24149,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
         <v>2890</v>
       </c>
@@ -23752,7 +24172,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="3" t="s">
         <v>2895</v>
       </c>
@@ -23775,7 +24195,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="3" t="s">
         <v>2900</v>
       </c>
@@ -23798,7 +24218,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="3" t="s">
         <v>2905</v>
       </c>
@@ -23821,7 +24241,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
         <v>2910</v>
       </c>
@@ -23844,7 +24264,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="3" t="s">
         <v>2915</v>
       </c>
@@ -23866,7 +24286,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z618" xr:uid="{83453C99-9678-854B-BFCC-0D1618D5D7F7}"/>
+  <autoFilter ref="A1:Z618" xr:uid="{83453C99-9678-854B-BFCC-0D1618D5D7F7}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Amnesic shellfish poisoning toxin stimulates the transcription of CYP1A possibly through AHR and ARNT in the liver of red sea bream Pagrus major"/>
+        <filter val="Domoic Acid and Other Amnesic Toxins: Toxicological Profile"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/lit_review/round2/raw/2025_07_30_round2_database.xlsx
+++ b/data/lit_review/round2/raw/2025_07_30_round2_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round2/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5FFC35-9585-AE45-BA4F-6D67D8742AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D07A71D-4A7D-594A-A9C0-13159079D72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4473" uniqueCount="2991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4727" uniqueCount="3018">
   <si>
     <t>paper_id</t>
   </si>
@@ -8999,6 +8999,87 @@
   </si>
   <si>
     <t>Alexandrium fundyense</t>
+  </si>
+  <si>
+    <t>Ciguatera</t>
+  </si>
+  <si>
+    <t>Ciguatoxin</t>
+  </si>
+  <si>
+    <t>Gambierdiscus polynesiensis</t>
+  </si>
+  <si>
+    <t>Azaspiracid</t>
+  </si>
+  <si>
+    <t>Diarrhetic, Azaspiracid</t>
+  </si>
+  <si>
+    <t>Alexandrium minutum</t>
+  </si>
+  <si>
+    <t>Alexandrium ostenfeldii</t>
+  </si>
+  <si>
+    <t>Alexandrium tamarense</t>
+  </si>
+  <si>
+    <t>Alexandrium catenella</t>
+  </si>
+  <si>
+    <t>Alexandrium catenella, Alexandrium pacificum</t>
+  </si>
+  <si>
+    <t>PSTs</t>
+  </si>
+  <si>
+    <t>Alexandrium insuetum</t>
+  </si>
+  <si>
+    <t>Alexandrium lusitanicum</t>
+  </si>
+  <si>
+    <t>Alexandrium monilatum</t>
+  </si>
+  <si>
+    <t>Alexandrium excavatum</t>
+  </si>
+  <si>
+    <t>Alexandrium pseudogonyaulax</t>
+  </si>
+  <si>
+    <t>Alexandrium pacificum, Akashiwo sanguinea</t>
+  </si>
+  <si>
+    <t>Cyanotoxin</t>
+  </si>
+  <si>
+    <t>Microcystin</t>
+  </si>
+  <si>
+    <t>Nodularin</t>
+  </si>
+  <si>
+    <t>Cylindrospermopsin, Microcystin-LR</t>
+  </si>
+  <si>
+    <t>Nodularia spumigena</t>
+  </si>
+  <si>
+    <t>Microcystis aeruginosa</t>
+  </si>
+  <si>
+    <t>microcystin-LR</t>
+  </si>
+  <si>
+    <t>Microcystin spp.</t>
+  </si>
+  <si>
+    <t>Microcystin, cylindrospermopsin</t>
+  </si>
+  <si>
+    <t>microcystin-LR, cylindrospermopsin</t>
   </si>
 </sst>
 </file>
@@ -9382,7 +9463,7 @@
   <dimension ref="A1:Z618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K619" sqref="K619"/>
+      <selection activeCell="K585" sqref="K585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9396,9 +9477,9 @@
     <col min="8" max="8" width="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
@@ -9516,7 +9597,7 @@
         <v>2942</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>2986</v>
+        <v>2995</v>
       </c>
       <c r="L2" t="s">
         <v>2978</v>
@@ -9544,6 +9625,12 @@
       <c r="G3" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>2992</v>
+      </c>
     </row>
     <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -9626,6 +9713,12 @@
       <c r="G6" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J6" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>2992</v>
+      </c>
     </row>
     <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -10148,6 +10241,12 @@
       <c r="G23" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J23" s="6" t="s">
+        <v>2994</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>2994</v>
+      </c>
     </row>
     <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -10706,6 +10805,12 @@
       </c>
       <c r="G41" s="3" t="s">
         <v>2942</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>2994</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>2994</v>
       </c>
     </row>
     <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
@@ -11504,6 +11609,12 @@
       <c r="G70" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J70" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L70" t="s">
+        <v>3009</v>
+      </c>
     </row>
     <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
@@ -11907,6 +12018,12 @@
       </c>
       <c r="G84" s="3" t="s">
         <v>2942</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>2992</v>
       </c>
     </row>
     <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
@@ -12289,6 +12406,15 @@
       <c r="G98" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J98" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="K98" t="s">
+        <v>2993</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>2992</v>
+      </c>
     </row>
     <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -12318,7 +12444,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>465</v>
       </c>
@@ -12470,6 +12596,12 @@
       <c r="G105" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J105" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>2992</v>
+      </c>
     </row>
     <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
@@ -12685,6 +12817,12 @@
       <c r="G113" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J113" s="6" t="s">
+        <v>2994</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>2994</v>
+      </c>
     </row>
     <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
@@ -13146,6 +13284,12 @@
       <c r="G131" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J131" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>2992</v>
+      </c>
     </row>
     <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
@@ -13295,6 +13439,15 @@
       <c r="G137" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J137" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="K137" t="s">
+        <v>3013</v>
+      </c>
+      <c r="L137" t="s">
+        <v>3009</v>
+      </c>
     </row>
     <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
@@ -13448,6 +13601,12 @@
       <c r="G143" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J143" s="6" t="s">
+        <v>2994</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>2994</v>
+      </c>
     </row>
     <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
@@ -13547,6 +13706,12 @@
       <c r="G147" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J147" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L147" t="s">
+        <v>3010</v>
+      </c>
     </row>
     <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
@@ -13616,6 +13781,12 @@
       <c r="G150" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J150" s="6" t="s">
+        <v>2994</v>
+      </c>
+      <c r="L150" s="6" t="s">
+        <v>2994</v>
+      </c>
     </row>
     <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
@@ -13658,6 +13829,12 @@
       <c r="G152" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J152" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L152" s="6" t="s">
+        <v>2992</v>
+      </c>
     </row>
     <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
@@ -13761,6 +13938,12 @@
       <c r="G156" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J156" s="6" t="s">
+        <v>2994</v>
+      </c>
+      <c r="L156" s="6" t="s">
+        <v>2994</v>
+      </c>
     </row>
     <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
@@ -13840,6 +14023,12 @@
       </c>
       <c r="G159" s="3" t="s">
         <v>2942</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L159" s="6" t="s">
+        <v>2992</v>
       </c>
     </row>
     <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
@@ -14366,6 +14555,15 @@
       <c r="G181" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J181" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>2960</v>
+      </c>
+      <c r="L181" t="s">
+        <v>3001</v>
+      </c>
     </row>
     <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
@@ -14565,7 +14763,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>888</v>
       </c>
@@ -15267,6 +15465,15 @@
       </c>
       <c r="G218" s="3" t="s">
         <v>2942</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K218" t="s">
+        <v>2996</v>
+      </c>
+      <c r="L218" t="s">
+        <v>3001</v>
       </c>
     </row>
     <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
@@ -15398,8 +15605,17 @@
       <c r="G224" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J224" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K224" t="s">
+        <v>2996</v>
+      </c>
+      <c r="L224" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>1052</v>
       </c>
@@ -15422,7 +15638,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>1057</v>
       </c>
@@ -15443,7 +15659,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>1061</v>
       </c>
@@ -15463,8 +15679,17 @@
       <c r="G227" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J227" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L227" t="s">
+        <v>3009</v>
+      </c>
+      <c r="M227" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>1065</v>
       </c>
@@ -15484,8 +15709,11 @@
       <c r="G228" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J228" s="6" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>1069</v>
       </c>
@@ -15508,7 +15736,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>1074</v>
       </c>
@@ -15531,7 +15759,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>1079</v>
       </c>
@@ -15552,7 +15780,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>1083</v>
       </c>
@@ -15575,7 +15803,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>1088</v>
       </c>
@@ -15607,7 +15835,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>1093</v>
       </c>
@@ -15630,7 +15858,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>1098</v>
       </c>
@@ -15653,7 +15881,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>1103</v>
       </c>
@@ -15676,7 +15904,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>1108</v>
       </c>
@@ -15699,7 +15927,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>1111</v>
       </c>
@@ -15720,7 +15948,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>1115</v>
       </c>
@@ -15743,7 +15971,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>1120</v>
       </c>
@@ -15832,6 +16060,15 @@
       <c r="G243" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J243" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K243" t="s">
+        <v>3002</v>
+      </c>
+      <c r="L243" t="s">
+        <v>3001</v>
+      </c>
     </row>
     <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
@@ -15998,6 +16235,15 @@
       <c r="G250" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J250" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K250" t="s">
+        <v>2998</v>
+      </c>
+      <c r="L250" t="s">
+        <v>3001</v>
+      </c>
     </row>
     <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
@@ -16111,6 +16357,15 @@
       <c r="G255" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J255" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K255" t="s">
+        <v>2997</v>
+      </c>
+      <c r="L255" t="s">
+        <v>3001</v>
+      </c>
     </row>
     <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
@@ -16133,7 +16388,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>1200</v>
       </c>
@@ -16156,7 +16411,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>1205</v>
       </c>
@@ -16179,7 +16434,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>1210</v>
       </c>
@@ -16202,7 +16457,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>1215</v>
       </c>
@@ -16225,7 +16480,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>1220</v>
       </c>
@@ -16248,7 +16503,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>1225</v>
       </c>
@@ -16270,8 +16525,17 @@
       <c r="G262" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J262" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K262" t="s">
+        <v>3003</v>
+      </c>
+      <c r="L262" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>1230</v>
       </c>
@@ -16292,7 +16556,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>1234</v>
       </c>
@@ -16312,8 +16576,14 @@
       <c r="G264" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J264" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L264" s="6" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>1238</v>
       </c>
@@ -16333,8 +16603,17 @@
       <c r="G265" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J265" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K265" t="s">
+        <v>2999</v>
+      </c>
+      <c r="L265" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>1242</v>
       </c>
@@ -16355,7 +16634,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>1246</v>
       </c>
@@ -16377,8 +16656,17 @@
       <c r="G267" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J267" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K267" t="s">
+        <v>2998</v>
+      </c>
+      <c r="L267" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>1251</v>
       </c>
@@ -16401,7 +16689,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>1256</v>
       </c>
@@ -16424,7 +16712,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>1261</v>
       </c>
@@ -16447,7 +16735,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>1266</v>
       </c>
@@ -16470,7 +16758,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>1271</v>
       </c>
@@ -16492,8 +16780,17 @@
       <c r="G272" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J272" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K272" t="s">
+        <v>2996</v>
+      </c>
+      <c r="L272" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>1276</v>
       </c>
@@ -16516,7 +16813,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>1281</v>
       </c>
@@ -16539,7 +16836,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>1286</v>
       </c>
@@ -16561,8 +16858,17 @@
       <c r="G275" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J275" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K275" t="s">
+        <v>2998</v>
+      </c>
+      <c r="L275" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>1291</v>
       </c>
@@ -16585,7 +16891,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>1296</v>
       </c>
@@ -16607,8 +16913,17 @@
       <c r="G277" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J277" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K277" t="s">
+        <v>2996</v>
+      </c>
+      <c r="L277" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>1301</v>
       </c>
@@ -16630,8 +16945,17 @@
       <c r="G278" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J278" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L278" t="s">
+        <v>3009</v>
+      </c>
+      <c r="M278" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>1306</v>
       </c>
@@ -16652,7 +16976,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>1310</v>
       </c>
@@ -16675,7 +16999,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>1315</v>
       </c>
@@ -16696,7 +17020,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>1319</v>
       </c>
@@ -16715,7 +17039,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>1322</v>
       </c>
@@ -16736,7 +17060,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>1326</v>
       </c>
@@ -16757,7 +17081,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>1330</v>
       </c>
@@ -16780,7 +17104,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>1335</v>
       </c>
@@ -16803,7 +17127,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>1340</v>
       </c>
@@ -16826,7 +17150,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>1345</v>
       </c>
@@ -16848,8 +17172,17 @@
       <c r="G288" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J288" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K288" t="s">
+        <v>2999</v>
+      </c>
+      <c r="L288" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>1350</v>
       </c>
@@ -16869,8 +17202,14 @@
       <c r="G289" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J289" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L289" s="6" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>1354</v>
       </c>
@@ -16893,7 +17232,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>1359</v>
       </c>
@@ -16915,8 +17254,17 @@
       <c r="G291" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J291" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K291" t="s">
+        <v>2999</v>
+      </c>
+      <c r="L291" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>1364</v>
       </c>
@@ -16939,7 +17287,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>1369</v>
       </c>
@@ -16962,7 +17310,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>1374</v>
       </c>
@@ -16983,7 +17331,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>1378</v>
       </c>
@@ -17006,7 +17354,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>1383</v>
       </c>
@@ -17029,7 +17377,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>1388</v>
       </c>
@@ -17052,7 +17400,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>1393</v>
       </c>
@@ -17075,7 +17423,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>1398</v>
       </c>
@@ -17098,7 +17446,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>1403</v>
       </c>
@@ -17119,7 +17467,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>1407</v>
       </c>
@@ -17142,7 +17490,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>1412</v>
       </c>
@@ -17165,7 +17513,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>1417</v>
       </c>
@@ -17187,8 +17535,17 @@
       <c r="G303" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J303" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K303" s="3" t="s">
+        <v>2960</v>
+      </c>
+      <c r="L303" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>1422</v>
       </c>
@@ -17211,7 +17568,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>1427</v>
       </c>
@@ -17231,8 +17588,17 @@
       <c r="G305" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J305" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K305" t="s">
+        <v>2998</v>
+      </c>
+      <c r="L305" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>1431</v>
       </c>
@@ -17255,7 +17621,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>1436</v>
       </c>
@@ -17278,7 +17644,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>1441</v>
       </c>
@@ -17301,7 +17667,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>1446</v>
       </c>
@@ -17323,8 +17689,17 @@
       <c r="G309" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J309" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K309" t="s">
+        <v>3000</v>
+      </c>
+      <c r="L309" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>1451</v>
       </c>
@@ -17346,8 +17721,17 @@
       <c r="G310" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J310" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K310" t="s">
+        <v>2996</v>
+      </c>
+      <c r="L310" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>1456</v>
       </c>
@@ -17369,8 +17753,17 @@
       <c r="G311" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J311" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K311" t="s">
+        <v>2997</v>
+      </c>
+      <c r="L311" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>1461</v>
       </c>
@@ -17393,7 +17786,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>1466</v>
       </c>
@@ -17416,7 +17809,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>1471</v>
       </c>
@@ -17437,7 +17830,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>1475</v>
       </c>
@@ -17460,7 +17853,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>1480</v>
       </c>
@@ -17483,7 +17876,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>1485</v>
       </c>
@@ -17506,7 +17899,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>1490</v>
       </c>
@@ -17529,7 +17922,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>1495</v>
       </c>
@@ -17551,8 +17944,17 @@
       <c r="G319" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J319" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K319" t="s">
+        <v>3004</v>
+      </c>
+      <c r="L319" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>1500</v>
       </c>
@@ -17575,7 +17977,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>1505</v>
       </c>
@@ -17598,7 +18000,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>1510</v>
       </c>
@@ -17621,7 +18023,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>1515</v>
       </c>
@@ -17643,8 +18045,17 @@
       <c r="G323" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J323" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K323" t="s">
+        <v>2998</v>
+      </c>
+      <c r="L323" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>1520</v>
       </c>
@@ -17666,8 +18077,17 @@
       <c r="G324" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J324" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K324" t="s">
+        <v>2996</v>
+      </c>
+      <c r="L324" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>1525</v>
       </c>
@@ -17690,7 +18110,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>1530</v>
       </c>
@@ -17713,7 +18133,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>1535</v>
       </c>
@@ -17736,7 +18156,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>1540</v>
       </c>
@@ -17757,7 +18177,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>1544</v>
       </c>
@@ -17780,7 +18200,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>1549</v>
       </c>
@@ -17803,7 +18223,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>1554</v>
       </c>
@@ -17826,7 +18246,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>1559</v>
       </c>
@@ -17849,7 +18269,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>1564</v>
       </c>
@@ -17872,7 +18292,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>1569</v>
       </c>
@@ -17895,7 +18315,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>1574</v>
       </c>
@@ -17918,7 +18338,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>1579</v>
       </c>
@@ -17941,7 +18361,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>1584</v>
       </c>
@@ -17964,7 +18384,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>1589</v>
       </c>
@@ -17987,7 +18407,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>1594</v>
       </c>
@@ -18006,7 +18426,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>1597</v>
       </c>
@@ -18029,7 +18449,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>1602</v>
       </c>
@@ -18052,7 +18472,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>1607</v>
       </c>
@@ -18075,7 +18495,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>1613</v>
       </c>
@@ -18098,7 +18518,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>1618</v>
       </c>
@@ -18121,7 +18541,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>1623</v>
       </c>
@@ -18142,7 +18562,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>1627</v>
       </c>
@@ -18158,8 +18578,17 @@
       <c r="G346" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J346" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K346" t="s">
+        <v>3005</v>
+      </c>
+      <c r="L346" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>1629</v>
       </c>
@@ -18182,7 +18611,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>1634</v>
       </c>
@@ -18205,7 +18634,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>1639</v>
       </c>
@@ -18228,7 +18657,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>1644</v>
       </c>
@@ -18251,7 +18680,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>1649</v>
       </c>
@@ -18273,8 +18702,17 @@
       <c r="G351" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J351" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K351" t="s">
+        <v>2996</v>
+      </c>
+      <c r="L351" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>1654</v>
       </c>
@@ -18295,7 +18733,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>1658</v>
       </c>
@@ -18317,8 +18755,14 @@
       <c r="G353" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J353" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L353" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>1663</v>
       </c>
@@ -18340,8 +18784,17 @@
       <c r="G354" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J354" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K354" s="5" t="s">
+        <v>2999</v>
+      </c>
+      <c r="L354" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>1668</v>
       </c>
@@ -18364,7 +18817,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>1673</v>
       </c>
@@ -18387,7 +18840,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>1678</v>
       </c>
@@ -18410,7 +18863,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>1683</v>
       </c>
@@ -18431,7 +18884,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>1687</v>
       </c>
@@ -18453,8 +18906,17 @@
       <c r="G359" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J359" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="K359" t="s">
+        <v>3012</v>
+      </c>
+      <c r="L359" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>1692</v>
       </c>
@@ -18476,8 +18938,17 @@
       <c r="G360" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J360" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="K360" t="s">
+        <v>3013</v>
+      </c>
+      <c r="L360" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>1697</v>
       </c>
@@ -18499,8 +18970,17 @@
       <c r="G361" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J361" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L361" t="s">
+        <v>3009</v>
+      </c>
+      <c r="M361" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>1702</v>
       </c>
@@ -18523,7 +19003,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>1707</v>
       </c>
@@ -18546,7 +19026,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>1712</v>
       </c>
@@ -18568,8 +19048,14 @@
       <c r="G364" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J364" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L364" s="6" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>1717</v>
       </c>
@@ -18592,7 +19078,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>1722</v>
       </c>
@@ -18613,7 +19099,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>1726</v>
       </c>
@@ -18636,7 +19122,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>1731</v>
       </c>
@@ -18704,6 +19190,15 @@
       <c r="G370" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J370" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="K370" t="s">
+        <v>3013</v>
+      </c>
+      <c r="L370" t="s">
+        <v>3009</v>
+      </c>
     </row>
     <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
@@ -18907,6 +19402,15 @@
       <c r="G379" s="3" t="s">
         <v>2942</v>
       </c>
+      <c r="J379" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K379" t="s">
+        <v>3006</v>
+      </c>
+      <c r="L379" t="s">
+        <v>3001</v>
+      </c>
     </row>
     <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
@@ -19030,7 +19534,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>1813</v>
       </c>
@@ -19053,7 +19557,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>1818</v>
       </c>
@@ -19072,7 +19576,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>1821</v>
       </c>
@@ -19095,7 +19599,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>1826</v>
       </c>
@@ -19116,7 +19620,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>1830</v>
       </c>
@@ -19139,7 +19643,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>1835</v>
       </c>
@@ -19162,7 +19666,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>1840</v>
       </c>
@@ -19185,7 +19689,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
         <v>1845</v>
       </c>
@@ -19208,7 +19712,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>1850</v>
       </c>
@@ -19231,7 +19735,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
         <v>1855</v>
       </c>
@@ -19252,7 +19756,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>1859</v>
       </c>
@@ -19274,8 +19778,17 @@
       <c r="G395" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J395" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L395" t="s">
+        <v>3009</v>
+      </c>
+      <c r="M395" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
         <v>1864</v>
       </c>
@@ -19297,8 +19810,17 @@
       <c r="G396" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J396" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K396" s="5" t="s">
+        <v>2999</v>
+      </c>
+      <c r="L396" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>1869</v>
       </c>
@@ -19319,7 +19841,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
         <v>1873</v>
       </c>
@@ -19341,8 +19863,17 @@
       <c r="G398" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J398" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K398" t="s">
+        <v>2999</v>
+      </c>
+      <c r="L398" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
         <v>1878</v>
       </c>
@@ -19363,7 +19894,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
         <v>1882</v>
       </c>
@@ -19383,8 +19914,14 @@
       <c r="G400" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J400" s="6" t="s">
+        <v>2994</v>
+      </c>
+      <c r="L400" s="6" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
         <v>1886</v>
       </c>
@@ -19405,7 +19942,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
         <v>1890</v>
       </c>
@@ -19427,8 +19964,17 @@
       <c r="G402" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J402" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K402" t="s">
+        <v>2998</v>
+      </c>
+      <c r="L402" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
         <v>1895</v>
       </c>
@@ -19451,7 +19997,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
         <v>1900</v>
       </c>
@@ -19472,7 +20018,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
         <v>1904</v>
       </c>
@@ -19495,7 +20041,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
         <v>1909</v>
       </c>
@@ -19518,7 +20064,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
         <v>1914</v>
       </c>
@@ -19538,8 +20084,17 @@
       <c r="G407" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J407" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="K407" t="s">
+        <v>3013</v>
+      </c>
+      <c r="L407" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
         <v>1918</v>
       </c>
@@ -19558,7 +20113,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
         <v>1921</v>
       </c>
@@ -19578,8 +20133,17 @@
       <c r="G409" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J409" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="K409" t="s">
+        <v>3013</v>
+      </c>
+      <c r="L409" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
         <v>1925</v>
       </c>
@@ -19602,7 +20166,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
         <v>1930</v>
       </c>
@@ -19622,8 +20186,17 @@
       <c r="G411" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J411" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K411" s="3" t="s">
+        <v>3007</v>
+      </c>
+      <c r="L411" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
         <v>1934</v>
       </c>
@@ -19646,7 +20219,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
         <v>1939</v>
       </c>
@@ -19665,7 +20238,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
         <v>1942</v>
       </c>
@@ -19687,8 +20260,17 @@
       <c r="G414" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J414" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K414" t="s">
+        <v>2999</v>
+      </c>
+      <c r="L414" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
         <v>1947</v>
       </c>
@@ -19711,7 +20293,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
         <v>1952</v>
       </c>
@@ -19734,7 +20316,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
         <v>1957</v>
       </c>
@@ -19757,7 +20339,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
         <v>1962</v>
       </c>
@@ -19780,7 +20362,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
         <v>1967</v>
       </c>
@@ -19803,7 +20385,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
         <v>1972</v>
       </c>
@@ -19826,7 +20408,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
         <v>1977</v>
       </c>
@@ -19849,7 +20431,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
         <v>1982</v>
       </c>
@@ -19871,8 +20453,14 @@
       <c r="G422" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J422" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L422" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
         <v>1987</v>
       </c>
@@ -19893,7 +20481,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
         <v>1991</v>
       </c>
@@ -19916,7 +20504,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
         <v>1996</v>
       </c>
@@ -19939,7 +20527,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
         <v>2001</v>
       </c>
@@ -19962,7 +20550,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
         <v>2006</v>
       </c>
@@ -19985,7 +20573,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
         <v>2011</v>
       </c>
@@ -20008,7 +20596,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
         <v>2016</v>
       </c>
@@ -20031,7 +20619,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
         <v>2021</v>
       </c>
@@ -20052,7 +20640,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
         <v>2025</v>
       </c>
@@ -20075,7 +20663,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
         <v>2030</v>
       </c>
@@ -20098,7 +20686,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
         <v>2035</v>
       </c>
@@ -20117,7 +20705,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
         <v>2038</v>
       </c>
@@ -20139,8 +20727,17 @@
       <c r="G434" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J434" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K434" t="s">
+        <v>3005</v>
+      </c>
+      <c r="L434" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
         <v>2043</v>
       </c>
@@ -20163,7 +20760,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
         <v>2048</v>
       </c>
@@ -20186,7 +20783,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
         <v>2053</v>
       </c>
@@ -20205,7 +20802,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
         <v>2056</v>
       </c>
@@ -20228,7 +20825,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
         <v>2061</v>
       </c>
@@ -20250,8 +20847,17 @@
       <c r="G439" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J439" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L439" t="s">
+        <v>3009</v>
+      </c>
+      <c r="M439" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
         <v>2066</v>
       </c>
@@ -20274,7 +20880,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
         <v>2071</v>
       </c>
@@ -20302,7 +20908,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
         <v>2075</v>
       </c>
@@ -20325,7 +20931,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
         <v>2080</v>
       </c>
@@ -20348,7 +20954,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
         <v>2085</v>
       </c>
@@ -20371,7 +20977,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
         <v>2090</v>
       </c>
@@ -20394,7 +21000,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
         <v>2095</v>
       </c>
@@ -20415,7 +21021,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
         <v>2099</v>
       </c>
@@ -20438,7 +21044,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
         <v>2104</v>
       </c>
@@ -20461,7 +21067,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
         <v>2109</v>
       </c>
@@ -20484,7 +21090,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
         <v>2114</v>
       </c>
@@ -20507,7 +21113,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
         <v>2119</v>
       </c>
@@ -20529,8 +21135,17 @@
       <c r="G451" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J451" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="K451" t="s">
+        <v>3013</v>
+      </c>
+      <c r="L451" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
         <v>2124</v>
       </c>
@@ -20549,7 +21164,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
         <v>2128</v>
       </c>
@@ -20572,7 +21187,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
         <v>2133</v>
       </c>
@@ -20595,7 +21210,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
         <v>2138</v>
       </c>
@@ -20618,7 +21233,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
         <v>2143</v>
       </c>
@@ -20641,7 +21256,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
         <v>2148</v>
       </c>
@@ -20664,7 +21279,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
         <v>2153</v>
       </c>
@@ -20687,7 +21302,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
         <v>2158</v>
       </c>
@@ -20710,7 +21325,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
         <v>2163</v>
       </c>
@@ -20732,8 +21347,17 @@
       <c r="G460" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J460" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K460" t="s">
+        <v>2998</v>
+      </c>
+      <c r="L460" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
         <v>2168</v>
       </c>
@@ -20756,7 +21380,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
         <v>2173</v>
       </c>
@@ -20779,7 +21403,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
         <v>2178</v>
       </c>
@@ -20800,7 +21424,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
         <v>2182</v>
       </c>
@@ -20821,7 +21445,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
         <v>2187</v>
       </c>
@@ -20844,7 +21468,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
         <v>2192</v>
       </c>
@@ -20867,7 +21491,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
         <v>2197</v>
       </c>
@@ -20890,7 +21514,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
         <v>2202</v>
       </c>
@@ -20913,7 +21537,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
         <v>2207</v>
       </c>
@@ -20930,7 +21554,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
         <v>2209</v>
       </c>
@@ -20953,7 +21577,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
         <v>2214</v>
       </c>
@@ -20972,7 +21596,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
         <v>2217</v>
       </c>
@@ -20993,7 +21617,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
         <v>2221</v>
       </c>
@@ -21015,8 +21639,17 @@
       <c r="G473" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J473" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K473" t="s">
+        <v>2999</v>
+      </c>
+      <c r="L473" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
         <v>2226</v>
       </c>
@@ -21038,8 +21671,17 @@
       <c r="G474" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J474" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K474" t="s">
+        <v>2996</v>
+      </c>
+      <c r="L474" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
         <v>2231</v>
       </c>
@@ -21062,7 +21704,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
         <v>2236</v>
       </c>
@@ -21083,7 +21725,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
         <v>2240</v>
       </c>
@@ -21106,7 +21748,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
         <v>2245</v>
       </c>
@@ -21129,7 +21771,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
         <v>2250</v>
       </c>
@@ -21151,8 +21793,17 @@
       <c r="G479" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J479" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="K479" t="s">
+        <v>3013</v>
+      </c>
+      <c r="L479" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
         <v>2255</v>
       </c>
@@ -21173,7 +21824,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
         <v>2259</v>
       </c>
@@ -21196,7 +21847,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
         <v>2264</v>
       </c>
@@ -21218,8 +21869,11 @@
       <c r="G482" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J482" s="6" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
         <v>2269</v>
       </c>
@@ -21242,7 +21896,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
         <v>2274</v>
       </c>
@@ -21265,7 +21919,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
         <v>2279</v>
       </c>
@@ -21287,8 +21941,17 @@
       <c r="G485" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J485" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K485" t="s">
+        <v>2999</v>
+      </c>
+      <c r="L485" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
         <v>2284</v>
       </c>
@@ -21311,7 +21974,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
         <v>2289</v>
       </c>
@@ -21334,7 +21997,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
         <v>2294</v>
       </c>
@@ -21357,7 +22020,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
         <v>2299</v>
       </c>
@@ -21380,7 +22043,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
         <v>2304</v>
       </c>
@@ -21403,7 +22066,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
         <v>2309</v>
       </c>
@@ -21426,7 +22089,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
         <v>2314</v>
       </c>
@@ -21447,7 +22110,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
         <v>2318</v>
       </c>
@@ -21470,7 +22133,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
         <v>2323</v>
       </c>
@@ -21492,8 +22155,14 @@
       <c r="G494" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J494" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L494" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
         <v>2328</v>
       </c>
@@ -21516,7 +22185,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
         <v>2333</v>
       </c>
@@ -21537,7 +22206,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
         <v>2337</v>
       </c>
@@ -21560,7 +22229,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
         <v>2342</v>
       </c>
@@ -21582,8 +22251,17 @@
       <c r="G498" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J498" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K498" t="s">
+        <v>2997</v>
+      </c>
+      <c r="L498" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
         <v>2347</v>
       </c>
@@ -21606,7 +22284,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
         <v>2352</v>
       </c>
@@ -21629,7 +22307,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
         <v>2357</v>
       </c>
@@ -21652,7 +22330,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="3" t="s">
         <v>2362</v>
       </c>
@@ -21675,7 +22353,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
         <v>2367</v>
       </c>
@@ -21696,7 +22374,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="3" t="s">
         <v>2371</v>
       </c>
@@ -21717,7 +22395,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
         <v>2375</v>
       </c>
@@ -21740,7 +22418,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="s">
         <v>2380</v>
       </c>
@@ -21763,7 +22441,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="s">
         <v>2385</v>
       </c>
@@ -21785,8 +22463,14 @@
       <c r="G507" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J507" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L507" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="s">
         <v>2390</v>
       </c>
@@ -21809,7 +22493,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
         <v>2395</v>
       </c>
@@ -21832,7 +22516,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="3" t="s">
         <v>2400</v>
       </c>
@@ -21855,7 +22539,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="s">
         <v>2405</v>
       </c>
@@ -21878,7 +22562,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="3" t="s">
         <v>2410</v>
       </c>
@@ -21899,7 +22583,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
         <v>2414</v>
       </c>
@@ -21921,8 +22605,17 @@
       <c r="G513" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J513" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K513" t="s">
+        <v>2999</v>
+      </c>
+      <c r="L513" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
         <v>2419</v>
       </c>
@@ -21945,7 +22638,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
         <v>2424</v>
       </c>
@@ -21968,7 +22661,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="s">
         <v>2429</v>
       </c>
@@ -21991,7 +22684,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
         <v>2434</v>
       </c>
@@ -22014,7 +22707,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="3" t="s">
         <v>2439</v>
       </c>
@@ -22037,7 +22730,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
         <v>2444</v>
       </c>
@@ -22059,8 +22752,17 @@
       <c r="G519" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J519" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K519" t="s">
+        <v>2998</v>
+      </c>
+      <c r="L519" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="3" t="s">
         <v>2449</v>
       </c>
@@ -22083,7 +22785,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
         <v>2454</v>
       </c>
@@ -22106,7 +22808,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="s">
         <v>2459</v>
       </c>
@@ -22127,7 +22829,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="s">
         <v>2463</v>
       </c>
@@ -22150,7 +22852,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="3" t="s">
         <v>2468</v>
       </c>
@@ -22171,7 +22873,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="s">
         <v>2472</v>
       </c>
@@ -22194,7 +22896,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="3" t="s">
         <v>2477</v>
       </c>
@@ -22216,8 +22918,17 @@
       <c r="G526" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J526" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K526" t="s">
+        <v>2998</v>
+      </c>
+      <c r="L526" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="s">
         <v>2482</v>
       </c>
@@ -22239,8 +22950,17 @@
       <c r="G527" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J527" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="K527" t="s">
+        <v>3012</v>
+      </c>
+      <c r="L527" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="s">
         <v>2487</v>
       </c>
@@ -22262,8 +22982,17 @@
       <c r="G528" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J528" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K528" t="s">
+        <v>2990</v>
+      </c>
+      <c r="L528" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
         <v>2492</v>
       </c>
@@ -22284,7 +23013,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A530" s="3" t="s">
         <v>2496</v>
       </c>
@@ -22306,8 +23035,17 @@
       <c r="G530" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J530" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L530" t="s">
+        <v>3009</v>
+      </c>
+      <c r="M530" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
         <v>2501</v>
       </c>
@@ -22330,7 +23068,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="s">
         <v>2506</v>
       </c>
@@ -22353,7 +23091,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
         <v>2511</v>
       </c>
@@ -22376,7 +23114,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="3" t="s">
         <v>2516</v>
       </c>
@@ -22397,7 +23135,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
         <v>2520</v>
       </c>
@@ -22420,7 +23158,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="s">
         <v>2525</v>
       </c>
@@ -22443,7 +23181,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
         <v>2530</v>
       </c>
@@ -22466,7 +23204,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
         <v>2535</v>
       </c>
@@ -22489,7 +23227,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
         <v>2540</v>
       </c>
@@ -22512,7 +23250,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="3" t="s">
         <v>2545</v>
       </c>
@@ -22533,7 +23271,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
         <v>2549</v>
       </c>
@@ -22555,8 +23293,14 @@
       <c r="G541" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J541" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L541" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="3" t="s">
         <v>2554</v>
       </c>
@@ -22577,7 +23321,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
         <v>2558</v>
       </c>
@@ -22598,7 +23342,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
         <v>2562</v>
       </c>
@@ -22621,7 +23365,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
         <v>2567</v>
       </c>
@@ -22644,7 +23388,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A546" s="3" t="s">
         <v>2572</v>
       </c>
@@ -22666,8 +23410,17 @@
       <c r="G546" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J546" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L546" t="s">
+        <v>3009</v>
+      </c>
+      <c r="M546" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
         <v>2577</v>
       </c>
@@ -22689,8 +23442,17 @@
       <c r="G547" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J547" t="s">
+        <v>3008</v>
+      </c>
+      <c r="K547" t="s">
+        <v>3015</v>
+      </c>
+      <c r="L547" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
         <v>2582</v>
       </c>
@@ -22713,7 +23475,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
         <v>2587</v>
       </c>
@@ -22736,7 +23498,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="3" t="s">
         <v>2592</v>
       </c>
@@ -22758,8 +23520,17 @@
       <c r="G550" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J550" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="K550" t="s">
+        <v>3013</v>
+      </c>
+      <c r="L550" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
         <v>2597</v>
       </c>
@@ -22782,7 +23553,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="3" t="s">
         <v>2602</v>
       </c>
@@ -22805,7 +23576,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
         <v>2607</v>
       </c>
@@ -22828,7 +23599,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
         <v>2612</v>
       </c>
@@ -22850,8 +23621,14 @@
       <c r="G554" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J554" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L554" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
         <v>2617</v>
       </c>
@@ -22874,7 +23651,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="3" t="s">
         <v>2622</v>
       </c>
@@ -22897,7 +23674,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
         <v>2627</v>
       </c>
@@ -22920,7 +23697,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="3" t="s">
         <v>2632</v>
       </c>
@@ -22942,8 +23719,17 @@
       <c r="G558" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J558" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K558" t="s">
+        <v>2997</v>
+      </c>
+      <c r="L558" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
         <v>2637</v>
       </c>
@@ -22966,7 +23752,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="3" t="s">
         <v>2642</v>
       </c>
@@ -22987,7 +23773,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
         <v>2646</v>
       </c>
@@ -23010,7 +23796,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="3" t="s">
         <v>2651</v>
       </c>
@@ -23028,8 +23814,14 @@
       <c r="G562" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J562" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="L562" s="6" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
         <v>2654</v>
       </c>
@@ -23052,7 +23844,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="3" t="s">
         <v>2659</v>
       </c>
@@ -23075,7 +23867,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
         <v>2664</v>
       </c>
@@ -23098,7 +23890,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="s">
         <v>2669</v>
       </c>
@@ -23121,7 +23913,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="3" t="s">
         <v>2674</v>
       </c>
@@ -23142,7 +23934,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="3" t="s">
         <v>2678</v>
       </c>
@@ -23165,7 +23957,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="3" t="s">
         <v>2683</v>
       </c>
@@ -23188,7 +23980,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="3" t="s">
         <v>2688</v>
       </c>
@@ -23209,7 +24001,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="3" t="s">
         <v>2692</v>
       </c>
@@ -23232,7 +24024,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" s="3" t="s">
         <v>2697</v>
       </c>
@@ -23254,8 +24046,14 @@
       <c r="G572" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J572" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L572" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
         <v>2702</v>
       </c>
@@ -23278,7 +24076,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="3" t="s">
         <v>2707</v>
       </c>
@@ -23301,7 +24099,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
         <v>2712</v>
       </c>
@@ -23322,7 +24120,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="3" t="s">
         <v>2716</v>
       </c>
@@ -23345,7 +24143,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
         <v>2721</v>
       </c>
@@ -23368,7 +24166,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="3" t="s">
         <v>2726</v>
       </c>
@@ -23391,7 +24189,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
         <v>2731</v>
       </c>
@@ -23412,7 +24210,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="3" t="s">
         <v>2735</v>
       </c>
@@ -23435,7 +24233,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
         <v>2740</v>
       </c>
@@ -23458,7 +24256,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
         <v>2745</v>
       </c>
@@ -23479,7 +24277,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
         <v>2749</v>
       </c>
@@ -23502,7 +24300,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="3" t="s">
         <v>2754</v>
       </c>
@@ -23525,7 +24323,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
         <v>2759</v>
       </c>
@@ -23547,8 +24345,17 @@
       <c r="G585" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J585" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L585" t="s">
+        <v>3009</v>
+      </c>
+      <c r="M585" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="586" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" s="3" t="s">
         <v>2764</v>
       </c>
@@ -23569,7 +24376,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
         <v>2768</v>
       </c>
@@ -23592,7 +24399,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="3" t="s">
         <v>2773</v>
       </c>
@@ -23615,7 +24422,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
         <v>2778</v>
       </c>
@@ -23638,7 +24445,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="3" t="s">
         <v>2783</v>
       </c>
@@ -23659,7 +24466,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
         <v>2787</v>
       </c>
@@ -23682,7 +24489,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="3" t="s">
         <v>2792</v>
       </c>
@@ -23703,7 +24510,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
         <v>2796</v>
       </c>
@@ -23724,7 +24531,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="3" t="s">
         <v>2800</v>
       </c>
@@ -23745,7 +24552,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
         <v>2804</v>
       </c>
@@ -23768,7 +24575,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="3" t="s">
         <v>2810</v>
       </c>
@@ -23791,7 +24598,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="3" t="s">
         <v>2815</v>
       </c>
@@ -23814,7 +24621,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="3" t="s">
         <v>2820</v>
       </c>
@@ -23837,7 +24644,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
         <v>2825</v>
       </c>
@@ -23860,7 +24667,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="3" t="s">
         <v>2830</v>
       </c>
@@ -23881,7 +24688,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
         <v>2834</v>
       </c>
@@ -23904,7 +24711,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="3" t="s">
         <v>2839</v>
       </c>
@@ -23925,7 +24732,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
         <v>2843</v>
       </c>
@@ -23948,7 +24755,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="3" t="s">
         <v>2848</v>
       </c>
@@ -23969,7 +24776,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
         <v>2852</v>
       </c>
@@ -23990,7 +24797,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="3" t="s">
         <v>2856</v>
       </c>
@@ -24011,7 +24818,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
         <v>2860</v>
       </c>
@@ -24034,7 +24841,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A608" s="3" t="s">
         <v>2865</v>
       </c>
@@ -24056,8 +24863,17 @@
       <c r="G608" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J608" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L608" t="s">
+        <v>3016</v>
+      </c>
+      <c r="M608" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
         <v>2870</v>
       </c>
@@ -24080,7 +24896,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="3" t="s">
         <v>2875</v>
       </c>
@@ -24103,7 +24919,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
         <v>2880</v>
       </c>
@@ -24126,7 +24942,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="3" t="s">
         <v>2885</v>
       </c>
@@ -24149,7 +24965,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
         <v>2890</v>
       </c>
@@ -24171,8 +24987,17 @@
       <c r="G613" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J613" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="K613" t="s">
+        <v>3013</v>
+      </c>
+      <c r="L613" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" s="3" t="s">
         <v>2895</v>
       </c>
@@ -24194,8 +25019,14 @@
       <c r="G614" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J614" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L614" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" s="3" t="s">
         <v>2900</v>
       </c>
@@ -24217,8 +25048,14 @@
       <c r="G615" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J615" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L615" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="3" t="s">
         <v>2905</v>
       </c>
@@ -24240,8 +25077,14 @@
       <c r="G616" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J616" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L616" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
         <v>2910</v>
       </c>
@@ -24264,7 +25107,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="3" t="s">
         <v>2915</v>
       </c>
@@ -24289,9 +25132,39 @@
   <autoFilter ref="A1:Z618" xr:uid="{83453C99-9678-854B-BFCC-0D1618D5D7F7}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Amnesic shellfish poisoning toxin stimulates the transcription of CYP1A possibly through AHR and ARNT in the liver of red sea bream Pagrus major"/>
-        <filter val="Domoic Acid and Other Amnesic Toxins: Toxicological Profile"/>
+        <filter val="A Kinetic Study of Accumulation and Elimination of Microcystin-LR in Yellow Perch (Perca Flavescens) Tissue and Implications for Human Fish Consumption"/>
+        <filter val="Accumulation of Microcystin (LR, RR and YR) in Three Freshwater Bivalves in Microcystis aeruginosa Bloom Using Dual Isotope Tracer"/>
+        <filter val="Allelopathic effect of Chitosan Fiber on the growth of Microcystis aeruginosa"/>
+        <filter val="Co-Occurrence of Microcystins and Taste-and-Odor Compounds in Drinking Water Source and Their Removal in a Full-Scale Drinking Water Treatment Plant"/>
+        <filter val="Construction and analysis of liver suppression subtractive hybridization library of silver carp (Hypophthalmichthys molitrix) intraperitoneally injected with microcystin-LR"/>
+        <filter val="Control of Microcystis aeruginosa growth and associated microcystin cyanotoxin remediation by electron beam irradiation (EBI)"/>
+        <filter val="Dissolved Microcystin Release Coincident with Lysis of a Bloom Dominated by Microcystis spp. in Western Lake Erie Attributed to a Novel Cyanophage"/>
+        <filter val="Down-regulation of iron/zinc ion transport and toxin synthesis in Microcystis aeruginosa exposed to 5,4′-dihydroxyflavone"/>
+        <filter val="Effect of pure microcystin-LR on activity and transcript level of immune-related enzymes in the white shrimp (Litopenaeus vannamei)"/>
+        <filter val="Effects of Cyanobacterial Lipopolysaccharides from Microcystis on Glutathione-Based Detoxification Pathways in the Zebrafish (Danio rerio) Embryo"/>
+        <filter val="Effects of toxic Microcystis aeruginosa on the silver carp Hypophthalmichtys molitrix revealed by hepatic RNA-seq and miRNA-seq"/>
+        <filter val="Evaluating microcystinase A-based approach on microcystins degradation during harvested cyanobacterial blooms"/>
+        <filter val="Evidence for a Novel Marine Harmful Algal Bloom: Cyanotoxin (Microcystin) Transfer from Land to Sea Otters"/>
+        <filter val="First report of detection of microcystins in farmed mediterranean mussels Mytilus galloprovincialis in Thermaikos gulf in Greece"/>
+        <filter val="Glutathione Transferases Responses Induced by Microcystin-LR in the Gills and Hepatopancreas of the Clam Venerupis philippinarum"/>
+        <filter val="In Vitro Toxicity Evaluation of Cyanotoxins Cylindrospermopsin and Microcystin-LR on Human Kidney HEK293 Cells"/>
+        <filter val="Innovative approaches for Microcystin removal: Bacterioplankton biodegradation and multi-soil-layering system performance assessment"/>
+        <filter val="Isopropylthiol emission by bloom-forming Microcystis: Biochemistry, ecophysiology and semiochemistry of a volatile organosulfur compound"/>
+        <filter val="Microcystin-leucine arginine exposure induced intestinal lipid accumulation and MC-LR efflux disorder in Lithobates catesbeianus tadpoles"/>
+        <filter val="Multi-Soil-Layering Technology: A New Approach to Remove Microcystis aeruginosa and Microcystins from Water"/>
+        <filter val="Nanozyme and bifunctional nanobody-based colorimetric-SERS dual-mode Immunosensor for microcystin-LR detection"/>
+        <filter val="Oral exposure to Microcystis increases activity-augmented antioxidant enzymes in the liver of loach (Misgurnus mizolepis) and has no effect on lipid peroxidation"/>
+        <filter val="Oxidation of microcystin-LR and cylindrospermopsin by heterogeneous photocatalysis using a tubular photoreactor packed with different TiO2 coated supports"/>
+        <filter val="Oxidative stress response in zebrafish (Danio rerio) gill experimentally exposed to subchronic microcystin-LR"/>
+        <filter val="The Fate of Microcystins in the Environment and Challenges for Monitoring"/>
+        <filter val="Toxicity of the microcystin-producing cyanobacteria Microcystis aeruginosa to shrimp Litopenaeus vannamei"/>
+        <filter val="Toxicogenomic evaluation of microcystin-LR treated with ultrasonic irradiation"/>
+        <filter val="Toxicological Studies on Microcystin Produced by Microcystis aeruginosa: Assessment and Management"/>
+        <filter val="Use of fluorescence fingerprints for the estimation of bloom formation and toxin production of Microcystis aeruginosa"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/lit_review/round2/raw/2025_07_30_round2_database.xlsx
+++ b/data/lit_review/round2/raw/2025_07_30_round2_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round2/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D07A71D-4A7D-594A-A9C0-13159079D72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4476153E-5378-C445-A27F-6470F4C32031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4727" uniqueCount="3018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4779" uniqueCount="3019">
   <si>
     <t>paper_id</t>
   </si>
@@ -9080,6 +9080,9 @@
   </si>
   <si>
     <t>microcystin-LR, cylindrospermopsin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brevetoxin </t>
   </si>
 </sst>
 </file>
@@ -9459,23 +9462,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z618"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K585" sqref="K585"/>
+    <sheetView tabSelected="1" topLeftCell="B559" workbookViewId="0">
+      <selection activeCell="H571" sqref="H571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="111" customWidth="1"/>
-    <col min="3" max="3" width="11" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="48.5" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.33203125" bestFit="1" customWidth="1"/>
@@ -9574,7 +9576,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -9603,7 +9605,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -9632,7 +9634,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -9659,10 +9661,10 @@
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -9691,7 +9693,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -9720,7 +9722,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -9749,7 +9751,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -9778,7 +9780,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -9805,10 +9807,10 @@
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -9835,7 +9837,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
@@ -9862,10 +9864,10 @@
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -9891,7 +9893,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -9920,7 +9922,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>62</v>
       </c>
@@ -9949,7 +9951,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>67</v>
       </c>
@@ -9974,10 +9976,10 @@
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>71</v>
       </c>
@@ -10004,10 +10006,10 @@
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>76</v>
       </c>
@@ -10034,10 +10036,10 @@
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>81</v>
       </c>
@@ -10064,7 +10066,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>85</v>
       </c>
@@ -10093,7 +10095,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>90</v>
       </c>
@@ -10128,7 +10130,7 @@
         <v>2946</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>2947</v>
+        <v>3018</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>2947</v>
@@ -10167,7 +10169,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>94</v>
       </c>
@@ -10196,7 +10198,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>100</v>
       </c>
@@ -10219,7 +10221,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>106</v>
       </c>
@@ -10248,7 +10250,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>111</v>
       </c>
@@ -10275,10 +10277,10 @@
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>116</v>
       </c>
@@ -10301,7 +10303,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>121</v>
       </c>
@@ -10328,10 +10330,10 @@
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>126</v>
       </c>
@@ -10357,7 +10359,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>131</v>
       </c>
@@ -10384,10 +10386,10 @@
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>136</v>
       </c>
@@ -10410,7 +10412,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>141</v>
       </c>
@@ -10439,7 +10441,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>146</v>
       </c>
@@ -10462,7 +10464,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>151</v>
       </c>
@@ -10491,7 +10493,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>156</v>
       </c>
@@ -10514,7 +10516,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>161</v>
       </c>
@@ -10541,7 +10543,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>165</v>
       </c>
@@ -10570,7 +10572,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>170</v>
       </c>
@@ -10633,7 +10635,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>170</v>
       </c>
@@ -10696,7 +10698,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>174</v>
       </c>
@@ -10725,7 +10727,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>179</v>
       </c>
@@ -10752,10 +10754,10 @@
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>184</v>
       </c>
@@ -10784,7 +10786,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>189</v>
       </c>
@@ -10813,7 +10815,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>194</v>
       </c>
@@ -10840,10 +10842,10 @@
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>199</v>
       </c>
@@ -10872,7 +10874,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>204</v>
       </c>
@@ -10895,7 +10897,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>209</v>
       </c>
@@ -10927,7 +10929,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>214</v>
       </c>
@@ -10950,7 +10952,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>219</v>
       </c>
@@ -10979,7 +10981,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>224</v>
       </c>
@@ -11005,7 +11007,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>229</v>
       </c>
@@ -11032,10 +11034,10 @@
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>234</v>
       </c>
@@ -11064,7 +11066,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>239</v>
       </c>
@@ -11087,7 +11089,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>244</v>
       </c>
@@ -11116,7 +11118,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>249</v>
       </c>
@@ -11145,7 +11147,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>254</v>
       </c>
@@ -11174,7 +11176,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>259</v>
       </c>
@@ -11203,7 +11205,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>264</v>
       </c>
@@ -11230,7 +11232,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>268</v>
       </c>
@@ -11259,7 +11261,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>273</v>
       </c>
@@ -11284,10 +11286,10 @@
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>277</v>
       </c>
@@ -11314,10 +11316,10 @@
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>282</v>
       </c>
@@ -11344,7 +11346,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>286</v>
       </c>
@@ -11367,7 +11369,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>291</v>
       </c>
@@ -11396,7 +11398,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>296</v>
       </c>
@@ -11423,7 +11425,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>300</v>
       </c>
@@ -11448,10 +11450,10 @@
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>304</v>
       </c>
@@ -11480,10 +11482,10 @@
         <v>2946</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>309</v>
       </c>
@@ -11512,7 +11514,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>314</v>
       </c>
@@ -11539,7 +11541,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>318</v>
       </c>
@@ -11562,10 +11564,10 @@
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>322</v>
       </c>
@@ -11589,7 +11591,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>326</v>
       </c>
@@ -11616,7 +11618,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>330</v>
       </c>
@@ -11645,7 +11647,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>335</v>
       </c>
@@ -11672,10 +11674,10 @@
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>340</v>
       </c>
@@ -11704,7 +11706,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>345</v>
       </c>
@@ -11731,10 +11733,10 @@
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>350</v>
       </c>
@@ -11766,7 +11768,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>355</v>
       </c>
@@ -11793,10 +11795,10 @@
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>360</v>
       </c>
@@ -11821,10 +11823,10 @@
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>364</v>
       </c>
@@ -11853,7 +11855,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>369</v>
       </c>
@@ -11882,7 +11884,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>374</v>
       </c>
@@ -11907,10 +11909,10 @@
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>378</v>
       </c>
@@ -11937,10 +11939,10 @@
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>383</v>
       </c>
@@ -11969,7 +11971,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>388</v>
       </c>
@@ -11994,10 +11996,10 @@
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>392</v>
       </c>
@@ -12026,7 +12028,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>397</v>
       </c>
@@ -12048,8 +12050,11 @@
       <c r="G85" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J85" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>402</v>
       </c>
@@ -12076,10 +12081,10 @@
         <v>2946</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>406</v>
       </c>
@@ -12104,10 +12109,10 @@
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>410</v>
       </c>
@@ -12130,7 +12135,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>415</v>
       </c>
@@ -12159,7 +12164,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>420</v>
       </c>
@@ -12188,7 +12193,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>425</v>
       </c>
@@ -12215,7 +12220,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>429</v>
       </c>
@@ -12250,7 +12255,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>434</v>
       </c>
@@ -12277,7 +12282,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>438</v>
       </c>
@@ -12299,8 +12304,11 @@
       <c r="G94" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J94" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>443</v>
       </c>
@@ -12329,7 +12337,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>448</v>
       </c>
@@ -12352,10 +12360,10 @@
       </c>
       <c r="K96" s="3"/>
       <c r="L96" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>451</v>
       </c>
@@ -12384,7 +12392,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>456</v>
       </c>
@@ -12416,7 +12424,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>461</v>
       </c>
@@ -12441,10 +12449,10 @@
       </c>
       <c r="K99" s="3"/>
       <c r="L99" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>465</v>
       </c>
@@ -12471,7 +12479,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>470</v>
       </c>
@@ -12495,7 +12503,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>474</v>
       </c>
@@ -12522,7 +12530,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>478</v>
       </c>
@@ -12551,7 +12559,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>483</v>
       </c>
@@ -12574,7 +12582,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>488</v>
       </c>
@@ -12603,7 +12611,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>493</v>
       </c>
@@ -12632,7 +12640,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>498</v>
       </c>
@@ -12659,10 +12667,10 @@
       </c>
       <c r="K107" s="3"/>
       <c r="L107" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>503</v>
       </c>
@@ -12691,7 +12699,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>508</v>
       </c>
@@ -12718,7 +12726,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>512</v>
       </c>
@@ -12745,10 +12753,10 @@
       </c>
       <c r="K110" s="3"/>
       <c r="L110" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>517</v>
       </c>
@@ -12774,7 +12782,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>522</v>
       </c>
@@ -12795,7 +12803,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>526</v>
       </c>
@@ -12824,7 +12832,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>531</v>
       </c>
@@ -12853,7 +12861,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>536</v>
       </c>
@@ -12880,7 +12888,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>540</v>
       </c>
@@ -12909,7 +12917,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>545</v>
       </c>
@@ -12932,7 +12940,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>550</v>
       </c>
@@ -12955,7 +12963,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>555</v>
       </c>
@@ -12978,7 +12986,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>560</v>
       </c>
@@ -13001,7 +13009,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>565</v>
       </c>
@@ -13030,10 +13038,10 @@
         <v>2946</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>570</v>
       </c>
@@ -13056,7 +13064,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>575</v>
       </c>
@@ -13086,7 +13094,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>579</v>
       </c>
@@ -13115,7 +13123,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>584</v>
       </c>
@@ -13138,7 +13146,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>589</v>
       </c>
@@ -13159,7 +13167,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>593</v>
       </c>
@@ -13186,10 +13194,10 @@
       </c>
       <c r="K127" s="3"/>
       <c r="L127" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>598</v>
       </c>
@@ -13209,8 +13217,11 @@
       <c r="G128" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J128" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>602</v>
       </c>
@@ -13233,7 +13244,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>607</v>
       </c>
@@ -13262,7 +13273,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>612</v>
       </c>
@@ -13291,7 +13302,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>617</v>
       </c>
@@ -13318,7 +13329,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>621</v>
       </c>
@@ -13350,7 +13361,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>626</v>
       </c>
@@ -13373,7 +13384,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>631</v>
       </c>
@@ -13396,7 +13407,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>636</v>
       </c>
@@ -13419,7 +13430,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>641</v>
       </c>
@@ -13449,7 +13460,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>645</v>
       </c>
@@ -13476,10 +13487,10 @@
       </c>
       <c r="K138" s="3"/>
       <c r="L138" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>650</v>
       </c>
@@ -13500,7 +13511,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>654</v>
       </c>
@@ -13529,7 +13540,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>659</v>
       </c>
@@ -13552,7 +13563,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>664</v>
       </c>
@@ -13579,7 +13590,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>668</v>
       </c>
@@ -13608,7 +13619,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>673</v>
       </c>
@@ -13631,7 +13642,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>678</v>
       </c>
@@ -13658,10 +13669,10 @@
       </c>
       <c r="K145" s="3"/>
       <c r="L145" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>683</v>
       </c>
@@ -13684,7 +13695,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>688</v>
       </c>
@@ -13713,7 +13724,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>693</v>
       </c>
@@ -13740,7 +13751,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>697</v>
       </c>
@@ -13761,7 +13772,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>701</v>
       </c>
@@ -13788,7 +13799,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>705</v>
       </c>
@@ -13809,7 +13820,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>709</v>
       </c>
@@ -13836,7 +13847,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>713</v>
       </c>
@@ -13863,7 +13874,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>717</v>
       </c>
@@ -13886,7 +13897,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>722</v>
       </c>
@@ -13913,10 +13924,10 @@
       </c>
       <c r="K155" s="3"/>
       <c r="L155" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>727</v>
       </c>
@@ -13945,7 +13956,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>732</v>
       </c>
@@ -13972,7 +13983,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>736</v>
       </c>
@@ -14004,7 +14015,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>741</v>
       </c>
@@ -14031,7 +14042,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>745</v>
       </c>
@@ -14054,7 +14065,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>750</v>
       </c>
@@ -14086,7 +14097,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>755</v>
       </c>
@@ -14107,7 +14118,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>759</v>
       </c>
@@ -14127,8 +14138,11 @@
       <c r="G163" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J163" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>763</v>
       </c>
@@ -14151,7 +14165,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>768</v>
       </c>
@@ -14174,7 +14188,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>773</v>
       </c>
@@ -14197,7 +14211,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>778</v>
       </c>
@@ -14220,7 +14234,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>783</v>
       </c>
@@ -14243,7 +14257,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>788</v>
       </c>
@@ -14266,7 +14280,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>793</v>
       </c>
@@ -14293,7 +14307,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>797</v>
       </c>
@@ -14317,7 +14331,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>801</v>
       </c>
@@ -14349,7 +14363,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>806</v>
       </c>
@@ -14372,7 +14386,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>811</v>
       </c>
@@ -14395,7 +14409,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>816</v>
       </c>
@@ -14418,7 +14432,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>821</v>
       </c>
@@ -14441,7 +14455,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>824</v>
       </c>
@@ -14464,7 +14478,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>829</v>
       </c>
@@ -14487,7 +14501,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>834</v>
       </c>
@@ -14510,7 +14524,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>839</v>
       </c>
@@ -14532,8 +14546,11 @@
       <c r="G180" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J180" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>844</v>
       </c>
@@ -14565,7 +14582,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>849</v>
       </c>
@@ -14594,10 +14611,10 @@
         <v>2946</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>854</v>
       </c>
@@ -14624,10 +14641,10 @@
       </c>
       <c r="K183" s="3"/>
       <c r="L183" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>859</v>
       </c>
@@ -14648,7 +14665,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>863</v>
       </c>
@@ -14670,8 +14687,11 @@
       <c r="G185" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J185" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>868</v>
       </c>
@@ -14693,8 +14713,11 @@
       <c r="G186" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J186" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>873</v>
       </c>
@@ -14717,7 +14740,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>878</v>
       </c>
@@ -14740,7 +14763,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>883</v>
       </c>
@@ -14763,7 +14786,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>888</v>
       </c>
@@ -14792,7 +14815,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>893</v>
       </c>
@@ -14815,7 +14838,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>898</v>
       </c>
@@ -14838,7 +14861,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>903</v>
       </c>
@@ -14867,7 +14890,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>908</v>
       </c>
@@ -14890,7 +14913,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>913</v>
       </c>
@@ -14911,7 +14934,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>917</v>
       </c>
@@ -14936,10 +14959,10 @@
       </c>
       <c r="K196" s="3"/>
       <c r="L196" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>921</v>
       </c>
@@ -14961,8 +14984,11 @@
       <c r="G197" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J197" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>926</v>
       </c>
@@ -14985,7 +15011,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>931</v>
       </c>
@@ -15014,10 +15040,10 @@
         <v>2946</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>936</v>
       </c>
@@ -15040,7 +15066,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>941</v>
       </c>
@@ -15063,7 +15089,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>946</v>
       </c>
@@ -15090,7 +15116,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>950</v>
       </c>
@@ -15112,8 +15138,11 @@
       <c r="G203" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J203" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>955</v>
       </c>
@@ -15142,10 +15171,10 @@
         <v>2946</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>960</v>
       </c>
@@ -15164,7 +15193,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>964</v>
       </c>
@@ -15186,8 +15215,11 @@
       <c r="G206" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J206" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>969</v>
       </c>
@@ -15208,7 +15240,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>973</v>
       </c>
@@ -15230,8 +15262,11 @@
       <c r="G208" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J208" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>978</v>
       </c>
@@ -15254,7 +15289,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>983</v>
       </c>
@@ -15277,7 +15312,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>988</v>
       </c>
@@ -15299,8 +15334,11 @@
       <c r="G211" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J211" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>993</v>
       </c>
@@ -15326,7 +15364,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>998</v>
       </c>
@@ -15349,7 +15387,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>1003</v>
       </c>
@@ -15376,10 +15414,10 @@
       </c>
       <c r="K214" s="3"/>
       <c r="L214" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>1008</v>
       </c>
@@ -15400,7 +15438,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>1012</v>
       </c>
@@ -15423,7 +15461,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>1017</v>
       </c>
@@ -15443,8 +15481,11 @@
       <c r="G217" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J217" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>1021</v>
       </c>
@@ -15476,7 +15517,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>1026</v>
       </c>
@@ -15496,8 +15537,11 @@
       <c r="G219" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J219" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>1030</v>
       </c>
@@ -15516,7 +15560,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>1033</v>
       </c>
@@ -15539,7 +15583,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>1038</v>
       </c>
@@ -15561,8 +15605,11 @@
       <c r="G222" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J222" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>1043</v>
       </c>
@@ -15582,8 +15629,11 @@
       <c r="G223" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J223" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>1047</v>
       </c>
@@ -15615,7 +15665,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>1052</v>
       </c>
@@ -15638,7 +15688,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>1057</v>
       </c>
@@ -15689,7 +15739,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>1065</v>
       </c>
@@ -15713,7 +15763,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>1069</v>
       </c>
@@ -15736,7 +15786,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>1074</v>
       </c>
@@ -15759,7 +15809,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>1079</v>
       </c>
@@ -15779,8 +15829,11 @@
       <c r="G231" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J231" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>1083</v>
       </c>
@@ -15802,8 +15855,11 @@
       <c r="G232" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J232" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>1088</v>
       </c>
@@ -15832,10 +15888,10 @@
         <v>2946</v>
       </c>
       <c r="L233" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>1093</v>
       </c>
@@ -15858,7 +15914,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>1098</v>
       </c>
@@ -15881,7 +15937,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>1103</v>
       </c>
@@ -15904,7 +15960,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>1108</v>
       </c>
@@ -15927,7 +15983,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>1111</v>
       </c>
@@ -15947,8 +16003,11 @@
       <c r="G238" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J238" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>1115</v>
       </c>
@@ -15971,7 +16030,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>1120</v>
       </c>
@@ -15992,7 +16051,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>1124</v>
       </c>
@@ -16015,7 +16074,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>1129</v>
       </c>
@@ -16038,7 +16097,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>1134</v>
       </c>
@@ -16070,7 +16129,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>1139</v>
       </c>
@@ -16092,8 +16151,11 @@
       <c r="G244" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J244" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>1144</v>
       </c>
@@ -16114,7 +16176,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>1148</v>
       </c>
@@ -16137,7 +16199,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>1153</v>
       </c>
@@ -16160,7 +16222,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>1158</v>
       </c>
@@ -16181,7 +16243,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>1162</v>
       </c>
@@ -16210,10 +16272,10 @@
         <v>2946</v>
       </c>
       <c r="L249" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>1167</v>
       </c>
@@ -16245,7 +16307,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>1172</v>
       </c>
@@ -16266,7 +16328,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>1176</v>
       </c>
@@ -16289,7 +16351,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>1181</v>
       </c>
@@ -16312,7 +16374,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>1186</v>
       </c>
@@ -16335,7 +16397,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>1191</v>
       </c>
@@ -16367,7 +16429,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>1196</v>
       </c>
@@ -16387,8 +16449,11 @@
       <c r="G256" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J256" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>1200</v>
       </c>
@@ -16411,7 +16476,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>1205</v>
       </c>
@@ -16434,7 +16499,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>1210</v>
       </c>
@@ -16456,8 +16521,11 @@
       <c r="G259" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J259" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>1215</v>
       </c>
@@ -16480,7 +16548,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>1220</v>
       </c>
@@ -16502,8 +16570,11 @@
       <c r="G261" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J261" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>1225</v>
       </c>
@@ -16535,7 +16606,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>1230</v>
       </c>
@@ -16556,7 +16627,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>1234</v>
       </c>
@@ -16583,7 +16654,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>1238</v>
       </c>
@@ -16613,7 +16684,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>1242</v>
       </c>
@@ -16634,7 +16705,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>1246</v>
       </c>
@@ -16666,7 +16737,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>1251</v>
       </c>
@@ -16689,7 +16760,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>1256</v>
       </c>
@@ -16712,7 +16783,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>1261</v>
       </c>
@@ -16735,7 +16806,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>1266</v>
       </c>
@@ -16757,8 +16828,11 @@
       <c r="G271" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J271" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>1271</v>
       </c>
@@ -16790,7 +16864,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>1276</v>
       </c>
@@ -16813,7 +16887,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>1281</v>
       </c>
@@ -16836,7 +16910,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>1286</v>
       </c>
@@ -16868,7 +16942,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>1291</v>
       </c>
@@ -16891,7 +16965,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>1296</v>
       </c>
@@ -16955,7 +17029,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>1306</v>
       </c>
@@ -16976,7 +17050,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>1310</v>
       </c>
@@ -16999,7 +17073,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>1315</v>
       </c>
@@ -17019,8 +17093,11 @@
       <c r="G281" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J281" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>1319</v>
       </c>
@@ -17039,7 +17116,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>1322</v>
       </c>
@@ -17060,7 +17137,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>1326</v>
       </c>
@@ -17081,7 +17158,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>1330</v>
       </c>
@@ -17103,8 +17180,11 @@
       <c r="G285" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J285" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>1335</v>
       </c>
@@ -17127,7 +17207,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>1340</v>
       </c>
@@ -17150,7 +17230,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>1345</v>
       </c>
@@ -17182,7 +17262,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>1350</v>
       </c>
@@ -17209,7 +17289,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>1354</v>
       </c>
@@ -17232,7 +17312,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>1359</v>
       </c>
@@ -17264,7 +17344,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>1364</v>
       </c>
@@ -17287,7 +17367,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>1369</v>
       </c>
@@ -17310,7 +17390,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>1374</v>
       </c>
@@ -17331,7 +17411,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>1378</v>
       </c>
@@ -17354,7 +17434,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>1383</v>
       </c>
@@ -17377,7 +17457,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>1388</v>
       </c>
@@ -17400,7 +17480,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>1393</v>
       </c>
@@ -17423,7 +17503,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>1398</v>
       </c>
@@ -17445,8 +17525,11 @@
       <c r="G299" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J299" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>1403</v>
       </c>
@@ -17467,7 +17550,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>1407</v>
       </c>
@@ -17490,7 +17573,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>1412</v>
       </c>
@@ -17513,7 +17596,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>1417</v>
       </c>
@@ -17545,7 +17628,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>1422</v>
       </c>
@@ -17568,7 +17651,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>1427</v>
       </c>
@@ -17598,7 +17681,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>1431</v>
       </c>
@@ -17621,7 +17704,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>1436</v>
       </c>
@@ -17644,7 +17727,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>1441</v>
       </c>
@@ -17666,8 +17749,11 @@
       <c r="G308" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J308" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>1446</v>
       </c>
@@ -17699,7 +17785,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>1451</v>
       </c>
@@ -17731,7 +17817,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>1456</v>
       </c>
@@ -17763,7 +17849,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>1461</v>
       </c>
@@ -17786,7 +17872,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>1466</v>
       </c>
@@ -17809,7 +17895,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>1471</v>
       </c>
@@ -17830,7 +17916,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>1475</v>
       </c>
@@ -17853,7 +17939,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>1480</v>
       </c>
@@ -17876,7 +17962,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>1485</v>
       </c>
@@ -17899,7 +17985,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>1490</v>
       </c>
@@ -17922,7 +18008,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>1495</v>
       </c>
@@ -17954,7 +18040,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>1500</v>
       </c>
@@ -17976,8 +18062,11 @@
       <c r="G320" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J320" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>1505</v>
       </c>
@@ -17999,8 +18088,11 @@
       <c r="G321" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J321" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>1510</v>
       </c>
@@ -18023,7 +18115,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>1515</v>
       </c>
@@ -18055,7 +18147,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>1520</v>
       </c>
@@ -18087,7 +18179,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>1525</v>
       </c>
@@ -18109,8 +18201,11 @@
       <c r="G325" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J325" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>1530</v>
       </c>
@@ -18133,7 +18228,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>1535</v>
       </c>
@@ -18155,8 +18250,11 @@
       <c r="G327" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J327" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>1540</v>
       </c>
@@ -18177,7 +18275,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>1544</v>
       </c>
@@ -18199,8 +18297,11 @@
       <c r="G329" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J329" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>1549</v>
       </c>
@@ -18223,7 +18324,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>1554</v>
       </c>
@@ -18246,7 +18347,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>1559</v>
       </c>
@@ -18268,8 +18369,11 @@
       <c r="G332" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J332" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>1564</v>
       </c>
@@ -18292,7 +18396,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>1569</v>
       </c>
@@ -18315,7 +18419,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>1574</v>
       </c>
@@ -18338,7 +18442,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>1579</v>
       </c>
@@ -18361,7 +18465,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>1584</v>
       </c>
@@ -18384,7 +18488,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>1589</v>
       </c>
@@ -18407,7 +18511,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>1594</v>
       </c>
@@ -18426,7 +18530,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>1597</v>
       </c>
@@ -18449,7 +18553,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>1602</v>
       </c>
@@ -18471,8 +18575,11 @@
       <c r="G341" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J341" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>1607</v>
       </c>
@@ -18495,7 +18602,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>1613</v>
       </c>
@@ -18518,7 +18625,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>1618</v>
       </c>
@@ -18541,7 +18648,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>1623</v>
       </c>
@@ -18562,7 +18669,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>1627</v>
       </c>
@@ -18588,7 +18695,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>1629</v>
       </c>
@@ -18611,7 +18718,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>1634</v>
       </c>
@@ -18634,7 +18741,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>1639</v>
       </c>
@@ -18657,7 +18764,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>1644</v>
       </c>
@@ -18680,7 +18787,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>1649</v>
       </c>
@@ -18712,7 +18819,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>1654</v>
       </c>
@@ -18762,7 +18869,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>1663</v>
       </c>
@@ -18794,7 +18901,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>1668</v>
       </c>
@@ -18817,7 +18924,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>1673</v>
       </c>
@@ -18840,7 +18947,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>1678</v>
       </c>
@@ -18863,7 +18970,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>1683</v>
       </c>
@@ -18884,7 +18991,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>1687</v>
       </c>
@@ -18916,7 +19023,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>1692</v>
       </c>
@@ -18980,7 +19087,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>1702</v>
       </c>
@@ -19003,7 +19110,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>1707</v>
       </c>
@@ -19025,8 +19132,11 @@
       <c r="G363" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J363" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>1712</v>
       </c>
@@ -19055,7 +19165,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>1717</v>
       </c>
@@ -19078,7 +19188,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>1722</v>
       </c>
@@ -19099,7 +19209,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>1726</v>
       </c>
@@ -19122,7 +19232,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>1731</v>
       </c>
@@ -19144,8 +19254,11 @@
       <c r="G368" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J368" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>1736</v>
       </c>
@@ -19168,7 +19281,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>1741</v>
       </c>
@@ -19200,7 +19313,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>1746</v>
       </c>
@@ -19223,7 +19336,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>1751</v>
       </c>
@@ -19246,7 +19359,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>1756</v>
       </c>
@@ -19267,7 +19380,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>1760</v>
       </c>
@@ -19290,7 +19403,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>1765</v>
       </c>
@@ -19313,7 +19426,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>1770</v>
       </c>
@@ -19336,7 +19449,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>1775</v>
       </c>
@@ -19357,7 +19470,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>1779</v>
       </c>
@@ -19380,7 +19493,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>1784</v>
       </c>
@@ -19412,7 +19525,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>1789</v>
       </c>
@@ -19439,10 +19552,10 @@
         <v>2946</v>
       </c>
       <c r="L380" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>1793</v>
       </c>
@@ -19464,8 +19577,11 @@
       <c r="G381" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J381" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>1798</v>
       </c>
@@ -19488,7 +19604,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>1803</v>
       </c>
@@ -19511,7 +19627,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>1808</v>
       </c>
@@ -19534,7 +19650,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>1813</v>
       </c>
@@ -19557,7 +19673,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>1818</v>
       </c>
@@ -19575,8 +19691,11 @@
       <c r="G386" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J386" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>1821</v>
       </c>
@@ -19599,7 +19718,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>1826</v>
       </c>
@@ -19620,7 +19739,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>1830</v>
       </c>
@@ -19643,7 +19762,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>1835</v>
       </c>
@@ -19666,7 +19785,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>1840</v>
       </c>
@@ -19689,7 +19808,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
         <v>1845</v>
       </c>
@@ -19712,7 +19831,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>1850</v>
       </c>
@@ -19735,7 +19854,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
         <v>1855</v>
       </c>
@@ -19788,7 +19907,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
         <v>1864</v>
       </c>
@@ -19820,7 +19939,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>1869</v>
       </c>
@@ -19841,7 +19960,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
         <v>1873</v>
       </c>
@@ -19873,7 +19992,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
         <v>1878</v>
       </c>
@@ -19893,8 +20012,11 @@
       <c r="G399" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J399" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
         <v>1882</v>
       </c>
@@ -19921,7 +20043,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
         <v>1886</v>
       </c>
@@ -19942,7 +20064,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
         <v>1890</v>
       </c>
@@ -19974,7 +20096,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
         <v>1895</v>
       </c>
@@ -19997,7 +20119,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
         <v>1900</v>
       </c>
@@ -20018,7 +20140,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
         <v>1904</v>
       </c>
@@ -20040,8 +20162,11 @@
       <c r="G405" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J405" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
         <v>1909</v>
       </c>
@@ -20064,7 +20189,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
         <v>1914</v>
       </c>
@@ -20094,7 +20219,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
         <v>1918</v>
       </c>
@@ -20113,7 +20238,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
         <v>1921</v>
       </c>
@@ -20143,7 +20268,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
         <v>1925</v>
       </c>
@@ -20166,7 +20291,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
         <v>1930</v>
       </c>
@@ -20196,7 +20321,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
         <v>1934</v>
       </c>
@@ -20219,7 +20344,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
         <v>1939</v>
       </c>
@@ -20238,7 +20363,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
         <v>1942</v>
       </c>
@@ -20270,7 +20395,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
         <v>1947</v>
       </c>
@@ -20293,7 +20418,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
         <v>1952</v>
       </c>
@@ -20316,7 +20441,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
         <v>1957</v>
       </c>
@@ -20338,8 +20463,11 @@
       <c r="G417" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J417" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
         <v>1962</v>
       </c>
@@ -20362,7 +20490,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
         <v>1967</v>
       </c>
@@ -20385,7 +20513,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
         <v>1972</v>
       </c>
@@ -20408,7 +20536,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
         <v>1977</v>
       </c>
@@ -20460,7 +20588,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
         <v>1987</v>
       </c>
@@ -20480,8 +20608,11 @@
       <c r="G423" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J423" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
         <v>1991</v>
       </c>
@@ -20504,7 +20635,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
         <v>1996</v>
       </c>
@@ -20527,7 +20658,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
         <v>2001</v>
       </c>
@@ -20550,7 +20681,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
         <v>2006</v>
       </c>
@@ -20573,7 +20704,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
         <v>2011</v>
       </c>
@@ -20595,8 +20726,11 @@
       <c r="G428" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J428" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
         <v>2016</v>
       </c>
@@ -20619,7 +20753,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
         <v>2021</v>
       </c>
@@ -20640,7 +20774,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
         <v>2025</v>
       </c>
@@ -20663,7 +20797,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
         <v>2030</v>
       </c>
@@ -20685,8 +20819,11 @@
       <c r="G432" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J432" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
         <v>2035</v>
       </c>
@@ -20705,7 +20842,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="434" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
         <v>2038</v>
       </c>
@@ -20737,7 +20874,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="435" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
         <v>2043</v>
       </c>
@@ -20760,7 +20897,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="436" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
         <v>2048</v>
       </c>
@@ -20783,7 +20920,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="437" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
         <v>2053</v>
       </c>
@@ -20802,7 +20939,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="438" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
         <v>2056</v>
       </c>
@@ -20823,6 +20960,9 @@
       </c>
       <c r="G438" s="3" t="s">
         <v>2942</v>
+      </c>
+      <c r="J438" s="3" t="s">
+        <v>2959</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.2">
@@ -20857,7 +20997,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="440" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
         <v>2066</v>
       </c>
@@ -20880,7 +21020,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="441" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
         <v>2071</v>
       </c>
@@ -20905,10 +21045,10 @@
       </c>
       <c r="K441" s="3"/>
       <c r="L441" s="3" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
         <v>2075</v>
       </c>
@@ -20931,7 +21071,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="443" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
         <v>2080</v>
       </c>
@@ -20953,8 +21093,11 @@
       <c r="G443" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J443" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
         <v>2085</v>
       </c>
@@ -20977,7 +21120,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
         <v>2090</v>
       </c>
@@ -21000,7 +21143,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="446" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
         <v>2095</v>
       </c>
@@ -21021,7 +21164,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
         <v>2099</v>
       </c>
@@ -21044,7 +21187,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
         <v>2104</v>
       </c>
@@ -21066,8 +21209,11 @@
       <c r="G448" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J448" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
         <v>2109</v>
       </c>
@@ -21090,7 +21236,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
         <v>2114</v>
       </c>
@@ -21113,7 +21259,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
         <v>2119</v>
       </c>
@@ -21145,7 +21291,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
         <v>2124</v>
       </c>
@@ -21163,8 +21309,11 @@
       <c r="G452" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J452" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
         <v>2128</v>
       </c>
@@ -21187,7 +21336,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
         <v>2133</v>
       </c>
@@ -21210,7 +21359,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
         <v>2138</v>
       </c>
@@ -21233,7 +21382,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
         <v>2143</v>
       </c>
@@ -21256,7 +21405,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
         <v>2148</v>
       </c>
@@ -21279,7 +21428,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
         <v>2153</v>
       </c>
@@ -21301,8 +21450,11 @@
       <c r="G458" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J458" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
         <v>2158</v>
       </c>
@@ -21325,7 +21477,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
         <v>2163</v>
       </c>
@@ -21357,7 +21509,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
         <v>2168</v>
       </c>
@@ -21380,7 +21532,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
         <v>2173</v>
       </c>
@@ -21403,7 +21555,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
         <v>2178</v>
       </c>
@@ -21424,7 +21576,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
         <v>2182</v>
       </c>
@@ -21445,7 +21597,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
         <v>2187</v>
       </c>
@@ -21468,7 +21620,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
         <v>2192</v>
       </c>
@@ -21491,7 +21643,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
         <v>2197</v>
       </c>
@@ -21514,7 +21666,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
         <v>2202</v>
       </c>
@@ -21537,7 +21689,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
         <v>2207</v>
       </c>
@@ -21554,7 +21706,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
         <v>2209</v>
       </c>
@@ -21577,7 +21729,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
         <v>2214</v>
       </c>
@@ -21596,7 +21748,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
         <v>2217</v>
       </c>
@@ -21617,7 +21769,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
         <v>2221</v>
       </c>
@@ -21649,7 +21801,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
         <v>2226</v>
       </c>
@@ -21681,7 +21833,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
         <v>2231</v>
       </c>
@@ -21704,7 +21856,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
         <v>2236</v>
       </c>
@@ -21725,7 +21877,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
         <v>2240</v>
       </c>
@@ -21748,7 +21900,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
         <v>2245</v>
       </c>
@@ -21771,7 +21923,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
         <v>2250</v>
       </c>
@@ -21803,7 +21955,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
         <v>2255</v>
       </c>
@@ -21824,7 +21976,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
         <v>2259</v>
       </c>
@@ -21847,7 +21999,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
         <v>2264</v>
       </c>
@@ -21873,7 +22025,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
         <v>2269</v>
       </c>
@@ -21896,7 +22048,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
         <v>2274</v>
       </c>
@@ -21919,7 +22071,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
         <v>2279</v>
       </c>
@@ -21951,7 +22103,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
         <v>2284</v>
       </c>
@@ -21974,7 +22126,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
         <v>2289</v>
       </c>
@@ -21997,7 +22149,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
         <v>2294</v>
       </c>
@@ -22020,7 +22172,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
         <v>2299</v>
       </c>
@@ -22043,7 +22195,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
         <v>2304</v>
       </c>
@@ -22066,7 +22218,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
         <v>2309</v>
       </c>
@@ -22089,7 +22241,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
         <v>2314</v>
       </c>
@@ -22110,7 +22262,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
         <v>2318</v>
       </c>
@@ -22162,7 +22314,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
         <v>2328</v>
       </c>
@@ -22185,7 +22337,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
         <v>2333</v>
       </c>
@@ -22205,8 +22357,11 @@
       <c r="G496" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J496" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
         <v>2337</v>
       </c>
@@ -22229,7 +22384,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
         <v>2342</v>
       </c>
@@ -22261,7 +22416,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
         <v>2347</v>
       </c>
@@ -22284,7 +22439,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
         <v>2352</v>
       </c>
@@ -22307,7 +22462,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
         <v>2357</v>
       </c>
@@ -22330,7 +22485,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" s="3" t="s">
         <v>2362</v>
       </c>
@@ -22353,7 +22508,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
         <v>2367</v>
       </c>
@@ -22374,7 +22529,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" s="3" t="s">
         <v>2371</v>
       </c>
@@ -22395,7 +22550,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
         <v>2375</v>
       </c>
@@ -22418,7 +22573,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="s">
         <v>2380</v>
       </c>
@@ -22470,7 +22625,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="s">
         <v>2390</v>
       </c>
@@ -22493,7 +22648,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
         <v>2395</v>
       </c>
@@ -22516,7 +22671,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" s="3" t="s">
         <v>2400</v>
       </c>
@@ -22539,7 +22694,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="s">
         <v>2405</v>
       </c>
@@ -22562,7 +22717,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" s="3" t="s">
         <v>2410</v>
       </c>
@@ -22583,7 +22738,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
         <v>2414</v>
       </c>
@@ -22615,7 +22770,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
         <v>2419</v>
       </c>
@@ -22637,8 +22792,11 @@
       <c r="G514" s="3" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J514" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
         <v>2424</v>
       </c>
@@ -22661,7 +22819,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="s">
         <v>2429</v>
       </c>
@@ -22684,7 +22842,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
         <v>2434</v>
       </c>
@@ -22707,7 +22865,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" s="3" t="s">
         <v>2439</v>
       </c>
@@ -22730,7 +22888,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
         <v>2444</v>
       </c>
@@ -22762,7 +22920,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" s="3" t="s">
         <v>2449</v>
       </c>
@@ -22785,7 +22943,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
         <v>2454</v>
       </c>
@@ -22808,7 +22966,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="s">
         <v>2459</v>
       </c>
@@ -22829,7 +22987,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="s">
         <v>2463</v>
       </c>
@@ -22852,7 +23010,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" s="3" t="s">
         <v>2468</v>
       </c>
@@ -22873,7 +23031,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="s">
         <v>2472</v>
       </c>
@@ -22896,7 +23054,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" s="3" t="s">
         <v>2477</v>
       </c>
@@ -22928,7 +23086,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="s">
         <v>2482</v>
       </c>
@@ -22960,7 +23118,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="s">
         <v>2487</v>
       </c>
@@ -22992,7 +23150,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="529" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
         <v>2492</v>
       </c>
@@ -23045,7 +23203,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="531" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
         <v>2501</v>
       </c>
@@ -23068,7 +23226,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="532" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="s">
         <v>2506</v>
       </c>
@@ -23091,7 +23249,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="533" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
         <v>2511</v>
       </c>
@@ -23114,7 +23272,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="534" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A534" s="3" t="s">
         <v>2516</v>
       </c>
@@ -23135,7 +23293,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="535" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
         <v>2520</v>
       </c>
@@ -23158,7 +23316,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="536" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="s">
         <v>2525</v>
       </c>
@@ -23181,7 +23339,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="537" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
         <v>2530</v>
       </c>
@@ -23204,7 +23362,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="538" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
         <v>2535</v>
       </c>
@@ -23227,7 +23385,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="539" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
         <v>2540</v>
       </c>
@@ -23250,7 +23408,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="540" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A540" s="3" t="s">
         <v>2545</v>
       </c>
@@ -23300,7 +23458,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="542" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A542" s="3" t="s">
         <v>2554</v>
       </c>
@@ -23321,7 +23479,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="543" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
         <v>2558</v>
       </c>
@@ -23342,7 +23500,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="544" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
         <v>2562</v>
       </c>
@@ -23365,7 +23523,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="545" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
         <v>2567</v>
       </c>
@@ -23452,7 +23610,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="548" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
         <v>2582</v>
       </c>
@@ -23475,7 +23633,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="549" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
         <v>2587</v>
       </c>
@@ -23498,7 +23656,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="550" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A550" s="3" t="s">
         <v>2592</v>
       </c>
@@ -23530,7 +23688,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="551" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
         <v>2597</v>
       </c>
@@ -23553,7 +23711,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="552" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A552" s="3" t="s">
         <v>2602</v>
       </c>
@@ -23576,7 +23734,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="553" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
         <v>2607</v>
       </c>
@@ -23599,7 +23757,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="554" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
         <v>2612</v>
       </c>
@@ -23628,7 +23786,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="555" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
         <v>2617</v>
       </c>
@@ -23651,7 +23809,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A556" s="3" t="s">
         <v>2622</v>
       </c>
@@ -23674,7 +23832,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="557" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
         <v>2627</v>
       </c>
@@ -23697,7 +23855,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="558" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A558" s="3" t="s">
         <v>2632</v>
       </c>
@@ -23729,7 +23887,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="559" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
         <v>2637</v>
       </c>
@@ -23752,7 +23910,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="560" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A560" s="3" t="s">
         <v>2642</v>
       </c>
@@ -23773,7 +23931,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
         <v>2646</v>
       </c>
@@ -23796,7 +23954,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" s="3" t="s">
         <v>2651</v>
       </c>
@@ -23821,7 +23979,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
         <v>2654</v>
       </c>
@@ -23844,7 +24002,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="3" t="s">
         <v>2659</v>
       </c>
@@ -23867,7 +24025,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
         <v>2664</v>
       </c>
@@ -23890,7 +24048,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="s">
         <v>2669</v>
       </c>
@@ -23913,7 +24071,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" s="3" t="s">
         <v>2674</v>
       </c>
@@ -23934,7 +24092,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" s="3" t="s">
         <v>2678</v>
       </c>
@@ -23957,7 +24115,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" s="3" t="s">
         <v>2683</v>
       </c>
@@ -23980,7 +24138,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" s="3" t="s">
         <v>2688</v>
       </c>
@@ -24001,7 +24159,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" s="3" t="s">
         <v>2692</v>
       </c>
@@ -24053,7 +24211,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
         <v>2702</v>
       </c>
@@ -24076,7 +24234,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" s="3" t="s">
         <v>2707</v>
       </c>
@@ -24099,7 +24257,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
         <v>2712</v>
       </c>
@@ -24120,7 +24278,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="3" t="s">
         <v>2716</v>
       </c>
@@ -24143,7 +24301,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="577" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
         <v>2721</v>
       </c>
@@ -24166,7 +24324,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="578" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A578" s="3" t="s">
         <v>2726</v>
       </c>
@@ -24189,7 +24347,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="579" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
         <v>2731</v>
       </c>
@@ -24210,7 +24368,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="580" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A580" s="3" t="s">
         <v>2735</v>
       </c>
@@ -24233,7 +24391,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="581" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
         <v>2740</v>
       </c>
@@ -24256,7 +24414,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="582" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
         <v>2745</v>
       </c>
@@ -24277,7 +24435,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="583" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
         <v>2749</v>
       </c>
@@ -24300,7 +24458,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="584" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A584" s="3" t="s">
         <v>2754</v>
       </c>
@@ -24355,7 +24513,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="586" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A586" s="3" t="s">
         <v>2764</v>
       </c>
@@ -24376,7 +24534,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="587" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
         <v>2768</v>
       </c>
@@ -24399,7 +24557,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="588" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A588" s="3" t="s">
         <v>2773</v>
       </c>
@@ -24422,7 +24580,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="589" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
         <v>2778</v>
       </c>
@@ -24445,7 +24603,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="590" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A590" s="3" t="s">
         <v>2783</v>
       </c>
@@ -24466,7 +24624,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="591" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
         <v>2787</v>
       </c>
@@ -24489,7 +24647,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="592" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A592" s="3" t="s">
         <v>2792</v>
       </c>
@@ -24510,7 +24668,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="593" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
         <v>2796</v>
       </c>
@@ -24531,7 +24689,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="594" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A594" s="3" t="s">
         <v>2800</v>
       </c>
@@ -24552,7 +24710,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="595" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
         <v>2804</v>
       </c>
@@ -24575,7 +24733,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="596" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A596" s="3" t="s">
         <v>2810</v>
       </c>
@@ -24598,7 +24756,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="597" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A597" s="3" t="s">
         <v>2815</v>
       </c>
@@ -24621,7 +24779,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="598" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A598" s="3" t="s">
         <v>2820</v>
       </c>
@@ -24644,7 +24802,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="599" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
         <v>2825</v>
       </c>
@@ -24667,7 +24825,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="600" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A600" s="3" t="s">
         <v>2830</v>
       </c>
@@ -24688,7 +24846,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="601" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
         <v>2834</v>
       </c>
@@ -24711,7 +24869,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="602" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A602" s="3" t="s">
         <v>2839</v>
       </c>
@@ -24732,7 +24890,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="603" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
         <v>2843</v>
       </c>
@@ -24755,7 +24913,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="604" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A604" s="3" t="s">
         <v>2848</v>
       </c>
@@ -24776,7 +24934,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="605" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
         <v>2852</v>
       </c>
@@ -24797,7 +24955,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="606" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A606" s="3" t="s">
         <v>2856</v>
       </c>
@@ -24818,7 +24976,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="607" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
         <v>2860</v>
       </c>
@@ -24873,7 +25031,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
         <v>2870</v>
       </c>
@@ -24896,7 +25054,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" s="3" t="s">
         <v>2875</v>
       </c>
@@ -24919,7 +25077,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
         <v>2880</v>
       </c>
@@ -24942,7 +25100,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" s="3" t="s">
         <v>2885</v>
       </c>
@@ -24965,7 +25123,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
         <v>2890</v>
       </c>
@@ -25055,7 +25213,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616" s="3" t="s">
         <v>2905</v>
       </c>
@@ -25084,7 +25242,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
         <v>2910</v>
       </c>
@@ -25107,7 +25265,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" s="3" t="s">
         <v>2915</v>
       </c>
@@ -25129,44 +25287,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z618" xr:uid="{83453C99-9678-854B-BFCC-0D1618D5D7F7}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="A Kinetic Study of Accumulation and Elimination of Microcystin-LR in Yellow Perch (Perca Flavescens) Tissue and Implications for Human Fish Consumption"/>
-        <filter val="Accumulation of Microcystin (LR, RR and YR) in Three Freshwater Bivalves in Microcystis aeruginosa Bloom Using Dual Isotope Tracer"/>
-        <filter val="Allelopathic effect of Chitosan Fiber on the growth of Microcystis aeruginosa"/>
-        <filter val="Co-Occurrence of Microcystins and Taste-and-Odor Compounds in Drinking Water Source and Their Removal in a Full-Scale Drinking Water Treatment Plant"/>
-        <filter val="Construction and analysis of liver suppression subtractive hybridization library of silver carp (Hypophthalmichthys molitrix) intraperitoneally injected with microcystin-LR"/>
-        <filter val="Control of Microcystis aeruginosa growth and associated microcystin cyanotoxin remediation by electron beam irradiation (EBI)"/>
-        <filter val="Dissolved Microcystin Release Coincident with Lysis of a Bloom Dominated by Microcystis spp. in Western Lake Erie Attributed to a Novel Cyanophage"/>
-        <filter val="Down-regulation of iron/zinc ion transport and toxin synthesis in Microcystis aeruginosa exposed to 5,4′-dihydroxyflavone"/>
-        <filter val="Effect of pure microcystin-LR on activity and transcript level of immune-related enzymes in the white shrimp (Litopenaeus vannamei)"/>
-        <filter val="Effects of Cyanobacterial Lipopolysaccharides from Microcystis on Glutathione-Based Detoxification Pathways in the Zebrafish (Danio rerio) Embryo"/>
-        <filter val="Effects of toxic Microcystis aeruginosa on the silver carp Hypophthalmichtys molitrix revealed by hepatic RNA-seq and miRNA-seq"/>
-        <filter val="Evaluating microcystinase A-based approach on microcystins degradation during harvested cyanobacterial blooms"/>
-        <filter val="Evidence for a Novel Marine Harmful Algal Bloom: Cyanotoxin (Microcystin) Transfer from Land to Sea Otters"/>
-        <filter val="First report of detection of microcystins in farmed mediterranean mussels Mytilus galloprovincialis in Thermaikos gulf in Greece"/>
-        <filter val="Glutathione Transferases Responses Induced by Microcystin-LR in the Gills and Hepatopancreas of the Clam Venerupis philippinarum"/>
-        <filter val="In Vitro Toxicity Evaluation of Cyanotoxins Cylindrospermopsin and Microcystin-LR on Human Kidney HEK293 Cells"/>
-        <filter val="Innovative approaches for Microcystin removal: Bacterioplankton biodegradation and multi-soil-layering system performance assessment"/>
-        <filter val="Isopropylthiol emission by bloom-forming Microcystis: Biochemistry, ecophysiology and semiochemistry of a volatile organosulfur compound"/>
-        <filter val="Microcystin-leucine arginine exposure induced intestinal lipid accumulation and MC-LR efflux disorder in Lithobates catesbeianus tadpoles"/>
-        <filter val="Multi-Soil-Layering Technology: A New Approach to Remove Microcystis aeruginosa and Microcystins from Water"/>
-        <filter val="Nanozyme and bifunctional nanobody-based colorimetric-SERS dual-mode Immunosensor for microcystin-LR detection"/>
-        <filter val="Oral exposure to Microcystis increases activity-augmented antioxidant enzymes in the liver of loach (Misgurnus mizolepis) and has no effect on lipid peroxidation"/>
-        <filter val="Oxidation of microcystin-LR and cylindrospermopsin by heterogeneous photocatalysis using a tubular photoreactor packed with different TiO2 coated supports"/>
-        <filter val="Oxidative stress response in zebrafish (Danio rerio) gill experimentally exposed to subchronic microcystin-LR"/>
-        <filter val="The Fate of Microcystins in the Environment and Challenges for Monitoring"/>
-        <filter val="Toxicity of the microcystin-producing cyanobacteria Microcystis aeruginosa to shrimp Litopenaeus vannamei"/>
-        <filter val="Toxicogenomic evaluation of microcystin-LR treated with ultrasonic irradiation"/>
-        <filter val="Toxicological Studies on Microcystin Produced by Microcystis aeruginosa: Assessment and Management"/>
-        <filter val="Use of fluorescence fingerprints for the estimation of bloom formation and toxin production of Microcystis aeruginosa"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Z618" xr:uid="{83453C99-9678-854B-BFCC-0D1618D5D7F7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/lit_review/round2/raw/2025_07_30_round2_database.xlsx
+++ b/data/lit_review/round2/raw/2025_07_30_round2_database.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round2/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4476153E-5378-C445-A27F-6470F4C32031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0209D7AF-9C90-A64B-A789-232369EC8608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="Not qualified" sheetId="2" r:id="rId3"/>
-    <sheet name="Need access" sheetId="3" r:id="rId4"/>
+    <sheet name="Not qualified" sheetId="2" r:id="rId2"/>
+    <sheet name="Need access" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Work!$A$1:$Z$618</definedName>
@@ -9464,8 +9463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B559" workbookViewId="0">
-      <selection activeCell="H571" sqref="H571"/>
+    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
+      <selection activeCell="B575" sqref="B575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25289,24 +25288,11 @@
   </sheetData>
   <autoFilter ref="A1:Z618" xr:uid="{83453C99-9678-854B-BFCC-0D1618D5D7F7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D710F6D4-CD31-C249-8CD3-B49FAD8A6F31}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8066DC-A0BA-5241-ACC3-112571B3C022}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -25320,7 +25306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFF2D25-5FBC-3145-97D4-849D0E4166C2}">
   <dimension ref="A1"/>
   <sheetViews>
